--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -1036,7 +1036,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="124">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,6 +457,42 @@
   </si>
   <si>
     <t>C09-3_BasicPopupFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹스퀘어스튜디오설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 프로젝트추가 및 경로설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 doctype, viewport 속성 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 css파일 설정(reset, lyout)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark모드 컬러값 변수처리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본고딕폰트css작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본고딕웹폰트파일변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐러셀 라이브러리 css작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐러셀 라이브러리 커스터마이징</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1036,7 +1072,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1211,9 @@
         <v>44136</v>
       </c>
       <c r="K4" s="8"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
@@ -1207,7 +1245,9 @@
         <v>44137</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
@@ -1239,7 +1279,9 @@
         <v>44137</v>
       </c>
       <c r="K6" s="8"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -1271,7 +1313,9 @@
         <v>44138</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -1303,7 +1347,9 @@
         <v>44138</v>
       </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -1335,7 +1381,9 @@
         <v>44139</v>
       </c>
       <c r="K9" s="8"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -1367,7 +1415,9 @@
         <v>44139</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -1399,7 +1449,9 @@
         <v>44140</v>
       </c>
       <c r="K11" s="8"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -1431,7 +1483,9 @@
         <v>44140</v>
       </c>
       <c r="K12" s="8"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -609,7 +609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,6 +648,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,7 +1081,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1086,7 +1095,7 @@
     <col min="7" max="7" width="17.875" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="12" customWidth="1"/>
     <col min="9" max="11" width="11.5" style="12" customWidth="1"/>
-    <col min="12" max="12" width="30.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.625" style="15" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1104,7 +1113,7 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="9" t="str">
+      <c r="L1" s="13" t="str">
         <f>"총완료 "&amp;COUNTA(J3:J10011)&amp;"건"</f>
         <v>총완료 13건</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>44136</v>
       </c>
       <c r="K3" s="8"/>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="5"/>
@@ -1211,7 +1220,7 @@
         <v>44136</v>
       </c>
       <c r="K4" s="8"/>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="14" t="s">
         <v>115</v>
       </c>
       <c r="M4" s="5"/>
@@ -1245,7 +1254,7 @@
         <v>44137</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="14" t="s">
         <v>116</v>
       </c>
       <c r="M5" s="5"/>
@@ -1279,7 +1288,7 @@
         <v>44137</v>
       </c>
       <c r="K6" s="8"/>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="14" t="s">
         <v>117</v>
       </c>
       <c r="M6" s="5"/>
@@ -1313,7 +1322,7 @@
         <v>44138</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="14" t="s">
         <v>118</v>
       </c>
       <c r="M7" s="5"/>
@@ -1347,7 +1356,7 @@
         <v>44138</v>
       </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="14" t="s">
         <v>119</v>
       </c>
       <c r="M8" s="5"/>
@@ -1381,7 +1390,7 @@
         <v>44139</v>
       </c>
       <c r="K9" s="8"/>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="14" t="s">
         <v>120</v>
       </c>
       <c r="M9" s="5"/>
@@ -1415,7 +1424,7 @@
         <v>44139</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="14" t="s">
         <v>121</v>
       </c>
       <c r="M10" s="5"/>
@@ -1449,7 +1458,7 @@
         <v>44140</v>
       </c>
       <c r="K11" s="8"/>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="14" t="s">
         <v>122</v>
       </c>
       <c r="M11" s="5"/>
@@ -1483,7 +1492,7 @@
         <v>44140</v>
       </c>
       <c r="K12" s="8"/>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="14" t="s">
         <v>123</v>
       </c>
       <c r="M12" s="5"/>
@@ -1517,7 +1526,7 @@
         <v>44143</v>
       </c>
       <c r="K13" s="8"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -1549,7 +1558,7 @@
         <v>44144</v>
       </c>
       <c r="K14" s="8"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
@@ -1581,7 +1590,7 @@
         <v>44145</v>
       </c>
       <c r="K15" s="8"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
@@ -1609,7 +1618,7 @@
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="14"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -1637,7 +1646,7 @@
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="14"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -1665,7 +1674,7 @@
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="14"/>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -1693,7 +1702,7 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="L19" s="14"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
@@ -1721,7 +1730,7 @@
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="14"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -1749,7 +1758,7 @@
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="14"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
@@ -1777,7 +1786,7 @@
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="L22" s="14"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
@@ -1805,7 +1814,7 @@
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="L23" s="14"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
@@ -1833,7 +1842,7 @@
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="L24" s="14"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
@@ -1861,7 +1870,7 @@
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="L25" s="14"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
@@ -1889,7 +1898,7 @@
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="L26" s="14"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
@@ -1917,7 +1926,7 @@
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
+      <c r="L27" s="14"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
@@ -1945,7 +1954,7 @@
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="5"/>
+      <c r="L28" s="14"/>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
@@ -1973,7 +1982,7 @@
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="5"/>
+      <c r="L29" s="14"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
@@ -2001,7 +2010,7 @@
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="5"/>
+      <c r="L30" s="14"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
@@ -2015,7 +2024,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="5"/>
+      <c r="L31" s="14"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
@@ -2029,7 +2038,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="5"/>
+      <c r="L32" s="14"/>
       <c r="M32" s="5"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
@@ -2043,7 +2052,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="5"/>
+      <c r="L33" s="14"/>
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
@@ -2057,7 +2066,7 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="5"/>
+      <c r="L34" s="14"/>
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
@@ -2071,7 +2080,7 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="5"/>
+      <c r="L35" s="14"/>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
@@ -2085,7 +2094,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="5"/>
+      <c r="L36" s="14"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
@@ -2099,7 +2108,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="5"/>
+      <c r="L37" s="14"/>
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
@@ -2113,7 +2122,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="5"/>
+      <c r="L38" s="14"/>
       <c r="M38" s="5"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
@@ -2127,7 +2136,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="5"/>
+      <c r="L39" s="14"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
@@ -2141,7 +2150,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="5"/>
+      <c r="L40" s="14"/>
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
@@ -2155,7 +2164,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
-      <c r="L41" s="5"/>
+      <c r="L41" s="14"/>
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
@@ -2169,7 +2178,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
-      <c r="L42" s="5"/>
+      <c r="L42" s="14"/>
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
@@ -2183,7 +2192,7 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
-      <c r="L43" s="5"/>
+      <c r="L43" s="14"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
@@ -2197,7 +2206,7 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
-      <c r="L44" s="5"/>
+      <c r="L44" s="14"/>
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
@@ -2211,7 +2220,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="5"/>
+      <c r="L45" s="14"/>
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
@@ -2225,7 +2234,7 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
-      <c r="L46" s="5"/>
+      <c r="L46" s="14"/>
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
@@ -2239,7 +2248,7 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="5"/>
+      <c r="L47" s="14"/>
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
@@ -2253,7 +2262,7 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="5"/>
+      <c r="L48" s="14"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
@@ -2267,7 +2276,7 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="5"/>
+      <c r="L49" s="14"/>
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
@@ -2281,7 +2290,7 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
-      <c r="L50" s="5"/>
+      <c r="L50" s="14"/>
       <c r="M50" s="5"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
@@ -2295,7 +2304,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
-      <c r="L51" s="5"/>
+      <c r="L51" s="14"/>
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
@@ -2309,7 +2318,7 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
-      <c r="L52" s="5"/>
+      <c r="L52" s="14"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
@@ -2323,7 +2332,7 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
-      <c r="L53" s="5"/>
+      <c r="L53" s="14"/>
       <c r="M53" s="5"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
@@ -2337,7 +2346,7 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
-      <c r="L54" s="5"/>
+      <c r="L54" s="14"/>
       <c r="M54" s="5"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
@@ -2351,7 +2360,7 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
-      <c r="L55" s="5"/>
+      <c r="L55" s="14"/>
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
@@ -2365,7 +2374,7 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="5"/>
+      <c r="L56" s="14"/>
       <c r="M56" s="5"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
@@ -2379,7 +2388,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
-      <c r="L57" s="5"/>
+      <c r="L57" s="14"/>
       <c r="M57" s="5"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
@@ -2393,7 +2402,7 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
-      <c r="L58" s="5"/>
+      <c r="L58" s="14"/>
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
@@ -2407,7 +2416,7 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
-      <c r="L59" s="5"/>
+      <c r="L59" s="14"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
@@ -2421,7 +2430,7 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
-      <c r="L60" s="5"/>
+      <c r="L60" s="14"/>
       <c r="M60" s="5"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
@@ -2435,7 +2444,7 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
-      <c r="L61" s="5"/>
+      <c r="L61" s="14"/>
       <c r="M61" s="5"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
@@ -2449,7 +2458,7 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
-      <c r="L62" s="5"/>
+      <c r="L62" s="14"/>
       <c r="M62" s="5"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
@@ -2463,7 +2472,7 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
-      <c r="L63" s="5"/>
+      <c r="L63" s="14"/>
       <c r="M63" s="5"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
@@ -2477,7 +2486,7 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
-      <c r="L64" s="5"/>
+      <c r="L64" s="14"/>
       <c r="M64" s="5"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
@@ -2491,7 +2500,7 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
-      <c r="L65" s="5"/>
+      <c r="L65" s="14"/>
       <c r="M65" s="5"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
@@ -2505,7 +2514,7 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
-      <c r="L66" s="5"/>
+      <c r="L66" s="14"/>
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
@@ -2519,7 +2528,7 @@
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
-      <c r="L67" s="5"/>
+      <c r="L67" s="14"/>
       <c r="M67" s="5"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
@@ -2533,7 +2542,7 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
-      <c r="L68" s="5"/>
+      <c r="L68" s="14"/>
       <c r="M68" s="5"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
@@ -2547,7 +2556,7 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
-      <c r="L69" s="5"/>
+      <c r="L69" s="14"/>
       <c r="M69" s="5"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
@@ -2561,7 +2570,7 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
-      <c r="L70" s="5"/>
+      <c r="L70" s="14"/>
       <c r="M70" s="5"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
@@ -2575,7 +2584,7 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
-      <c r="L71" s="5"/>
+      <c r="L71" s="14"/>
       <c r="M71" s="5"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
@@ -2589,7 +2598,7 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
-      <c r="L72" s="5"/>
+      <c r="L72" s="14"/>
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
@@ -2603,7 +2612,7 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
-      <c r="L73" s="5"/>
+      <c r="L73" s="14"/>
       <c r="M73" s="5"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
@@ -2617,7 +2626,7 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
-      <c r="L74" s="5"/>
+      <c r="L74" s="14"/>
       <c r="M74" s="5"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
@@ -2631,7 +2640,7 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="5"/>
+      <c r="L75" s="14"/>
       <c r="M75" s="5"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
@@ -2645,7 +2654,7 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="5"/>
+      <c r="L76" s="14"/>
       <c r="M76" s="5"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
@@ -2659,7 +2668,7 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="5"/>
+      <c r="L77" s="14"/>
       <c r="M77" s="5"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
@@ -2673,7 +2682,7 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
-      <c r="L78" s="5"/>
+      <c r="L78" s="14"/>
       <c r="M78" s="5"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
@@ -2687,7 +2696,7 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
-      <c r="L79" s="5"/>
+      <c r="L79" s="14"/>
       <c r="M79" s="5"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
@@ -2701,7 +2710,7 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
-      <c r="L80" s="5"/>
+      <c r="L80" s="14"/>
       <c r="M80" s="5"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
@@ -2715,7 +2724,7 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
-      <c r="L81" s="5"/>
+      <c r="L81" s="14"/>
       <c r="M81" s="5"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
@@ -2729,7 +2738,7 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
-      <c r="L82" s="5"/>
+      <c r="L82" s="14"/>
       <c r="M82" s="5"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
@@ -2743,7 +2752,7 @@
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
-      <c r="L83" s="5"/>
+      <c r="L83" s="14"/>
       <c r="M83" s="5"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
@@ -2757,7 +2766,7 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
-      <c r="L84" s="5"/>
+      <c r="L84" s="14"/>
       <c r="M84" s="5"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
@@ -2771,7 +2780,7 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
-      <c r="L85" s="5"/>
+      <c r="L85" s="14"/>
       <c r="M85" s="5"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
@@ -2785,7 +2794,7 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
-      <c r="L86" s="5"/>
+      <c r="L86" s="14"/>
       <c r="M86" s="5"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
@@ -2799,7 +2808,7 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
-      <c r="L87" s="5"/>
+      <c r="L87" s="14"/>
       <c r="M87" s="5"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
@@ -2813,7 +2822,7 @@
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
-      <c r="L88" s="5"/>
+      <c r="L88" s="14"/>
       <c r="M88" s="5"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.3">
@@ -2827,7 +2836,7 @@
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
-      <c r="L89" s="5"/>
+      <c r="L89" s="14"/>
       <c r="M89" s="5"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.3">
@@ -2841,7 +2850,7 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
-      <c r="L90" s="5"/>
+      <c r="L90" s="14"/>
       <c r="M90" s="5"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.3">
@@ -2855,7 +2864,7 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
-      <c r="L91" s="5"/>
+      <c r="L91" s="14"/>
       <c r="M91" s="5"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
@@ -2869,7 +2878,7 @@
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
-      <c r="L92" s="5"/>
+      <c r="L92" s="14"/>
       <c r="M92" s="5"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
@@ -2883,7 +2892,7 @@
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
-      <c r="L93" s="5"/>
+      <c r="L93" s="14"/>
       <c r="M93" s="5"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
@@ -2897,7 +2906,7 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
-      <c r="L94" s="5"/>
+      <c r="L94" s="14"/>
       <c r="M94" s="5"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.3">
@@ -2911,7 +2920,7 @@
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
-      <c r="L95" s="5"/>
+      <c r="L95" s="14"/>
       <c r="M95" s="5"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
@@ -2925,7 +2934,7 @@
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
-      <c r="L96" s="5"/>
+      <c r="L96" s="14"/>
       <c r="M96" s="5"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.3">
@@ -2939,7 +2948,7 @@
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
-      <c r="L97" s="5"/>
+      <c r="L97" s="14"/>
       <c r="M97" s="5"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.3">
@@ -2953,7 +2962,7 @@
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
-      <c r="L98" s="5"/>
+      <c r="L98" s="14"/>
       <c r="M98" s="5"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.3">
@@ -2967,7 +2976,7 @@
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
-      <c r="L99" s="5"/>
+      <c r="L99" s="14"/>
       <c r="M99" s="5"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.3">
@@ -2981,7 +2990,7 @@
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
-      <c r="L100" s="5"/>
+      <c r="L100" s="14"/>
       <c r="M100" s="5"/>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.3">
@@ -2995,7 +3004,7 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
-      <c r="L101" s="5"/>
+      <c r="L101" s="14"/>
       <c r="M101" s="5"/>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.3">
@@ -3009,7 +3018,7 @@
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
-      <c r="L102" s="5"/>
+      <c r="L102" s="14"/>
       <c r="M102" s="5"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.3">
@@ -3023,7 +3032,7 @@
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
-      <c r="L103" s="5"/>
+      <c r="L103" s="14"/>
       <c r="M103" s="5"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.3">
@@ -3037,7 +3046,7 @@
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
-      <c r="L104" s="5"/>
+      <c r="L104" s="14"/>
       <c r="M104" s="5"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.3">
@@ -3051,7 +3060,7 @@
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
-      <c r="L105" s="5"/>
+      <c r="L105" s="14"/>
       <c r="M105" s="5"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.3">
@@ -3065,7 +3074,7 @@
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
-      <c r="L106" s="5"/>
+      <c r="L106" s="14"/>
       <c r="M106" s="5"/>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.3">
@@ -3079,7 +3088,7 @@
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
-      <c r="L107" s="5"/>
+      <c r="L107" s="14"/>
       <c r="M107" s="5"/>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.3">
@@ -3093,7 +3102,7 @@
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
-      <c r="L108" s="5"/>
+      <c r="L108" s="14"/>
       <c r="M108" s="5"/>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.3">
@@ -3107,7 +3116,7 @@
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
-      <c r="L109" s="5"/>
+      <c r="L109" s="14"/>
       <c r="M109" s="5"/>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.3">
@@ -3121,7 +3130,7 @@
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
-      <c r="L110" s="5"/>
+      <c r="L110" s="14"/>
       <c r="M110" s="5"/>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.3">
@@ -3135,7 +3144,7 @@
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
-      <c r="L111" s="5"/>
+      <c r="L111" s="14"/>
       <c r="M111" s="5"/>
     </row>
   </sheetData>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="124">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1081,7 +1081,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1115,7 +1115,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="13" t="str">
         <f>"총완료 "&amp;COUNTA(J3:J10011)&amp;"건"</f>
-        <v>총완료 13건</v>
+        <v>총완료 14건</v>
       </c>
       <c r="M1" s="9"/>
       <c r="N1" s="1"/>
@@ -1606,7 +1606,9 @@
       <c r="E16" s="6">
         <v>0</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="G16" s="7" t="s">
         <v>93</v>
       </c>
@@ -1616,7 +1618,9 @@
       <c r="I16" s="8">
         <v>44146</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8">
+        <v>44146</v>
+      </c>
       <c r="K16" s="5"/>
       <c r="L16" s="14"/>
       <c r="M16" s="5"/>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="141">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,394 +153,402 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>toggle swich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sildebox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagebox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabcontrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-Do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객조회결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객조회결과상세_모바일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객조회결과상세_홈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합상담이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객정보 사전조회 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개통지역확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객동의 완료내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측상단 햄버거 - 전체메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥화면 - 전체메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottom Sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toast Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/static/web/pub/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P02-1_Main_CustomerSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P03-1_Main_CustomerSearchResult</t>
+  </si>
+  <si>
+    <t>P04-1_Main_CustomerSearchResultDetail_mobile</t>
+  </si>
+  <si>
+    <t>P04-2_Main_CustomerSearchResultDetail_home</t>
+  </si>
+  <si>
+    <t>P05-1_Popup_IntegratedConsultationHistory</t>
+  </si>
+  <si>
+    <t>P05-2_Popup_CustomerInformationGuide</t>
+  </si>
+  <si>
+    <t>P06-1_Main_Openstatus</t>
+  </si>
+  <si>
+    <t>P07-1_Main_MyNotification</t>
+  </si>
+  <si>
+    <t>P08-1_Main_CustomerConsentCompletiondetails</t>
+  </si>
+  <si>
+    <t>P09-1_Main_RightMenu</t>
+  </si>
+  <si>
+    <t>P10-1_Main_AllMenu</t>
+  </si>
+  <si>
+    <t>P11-1_Popup_Setting</t>
+  </si>
+  <si>
+    <t>P12-1_Popup_Alert</t>
+  </si>
+  <si>
+    <t>P13-1_Popup_BottomSheet</t>
+  </si>
+  <si>
+    <t>P14-1_Popup_ToastMessage</t>
+  </si>
+  <si>
+    <t>F01-1_AppBar</t>
+  </si>
+  <si>
+    <t>F02-1_BottomNavigation</t>
+  </si>
+  <si>
+    <t>F03-1_Drawer</t>
+  </si>
+  <si>
+    <t>F05-1_PopupAlert</t>
+  </si>
+  <si>
+    <t>F06-1_BottomSheet</t>
+  </si>
+  <si>
+    <t>F07-1_ToastMessage</t>
+  </si>
+  <si>
+    <t>F04-1_PopupFull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C01-1_Buttons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C02-1_ToggleSwich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C03-1_InputForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C04-1_SildeBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C05-1_MessageBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C06-1_TabControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C07-1_Icons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C08-1_DarkMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템설정파일(임시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템설정파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임구성항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/.settings/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/websquare/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/css/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/fonts/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/js/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>websquare.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>websquare.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noto-sans-kr.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noto Sans KR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swiper.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swiper.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P01-1_Main_ToDo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic - main frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic - sub frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic - popup frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C09-1_BasicMainFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C09-2_BasicSubFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C09-3_BasicPopupFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹스퀘어스튜디오설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 프로젝트추가 및 경로설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 doctype, viewport 속성 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 css파일 설정(reset, lyout)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark모드 컬러값 변수처리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본고딕폰트css작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본고딕웹폰트파일변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐러셀 라이브러리 css작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐러셀 라이브러리 커스터마이징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹스퀘어 라이선스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인화면 웹?앱? 하이브리드앱? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">디바이스UI 세로사이즈에 포함, 불포함 </t>
+  </si>
+  <si>
+    <t>font-stretch(장평) 웹폰트 적용불가</t>
+  </si>
+  <si>
+    <t>핸드폰 모델별 아이폰하단메뉴 높이</t>
+  </si>
+  <si>
+    <t>필터항목 component는 어떤걸로? 현재는 체크박스</t>
+  </si>
+  <si>
+    <t>날짜입력폼 native로 하는건 어떨지</t>
+  </si>
+  <si>
+    <t>체크박스 체크된 이미지 필요 계속버튼 활성이미지 필요</t>
+  </si>
+  <si>
+    <t>레이아웃 다시 잡기 flex direction column</t>
+  </si>
+  <si>
+    <t>화면분할 4분할</t>
+  </si>
+  <si>
+    <t>dark모드</t>
+  </si>
+  <si>
+    <t>캘린더 2종 그냥캘린더 스케줄캘린더</t>
+  </si>
+  <si>
+    <t>알림 push 화면</t>
+  </si>
+  <si>
+    <t>figma : sang1009@naver.com // 0504tkdwns!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>buttons</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>toggle swich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sildebox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagebox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tabcontrol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-Do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객조회결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객조회결과상세_모바일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객조회결과상세_홈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합상담이력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객정보 사전조회 안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개통지역확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객동의 완료내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우측상단 햄버거 - 전체메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바닥화면 - 전체메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bottom Sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toast Message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/static/web/pub/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P02-1_Main_CustomerSearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P03-1_Main_CustomerSearchResult</t>
-  </si>
-  <si>
-    <t>P04-1_Main_CustomerSearchResultDetail_mobile</t>
-  </si>
-  <si>
-    <t>P04-2_Main_CustomerSearchResultDetail_home</t>
-  </si>
-  <si>
-    <t>P05-1_Popup_IntegratedConsultationHistory</t>
-  </si>
-  <si>
-    <t>P05-2_Popup_CustomerInformationGuide</t>
-  </si>
-  <si>
-    <t>P06-1_Main_Openstatus</t>
-  </si>
-  <si>
-    <t>P07-1_Main_MyNotification</t>
-  </si>
-  <si>
-    <t>P08-1_Main_CustomerConsentCompletiondetails</t>
-  </si>
-  <si>
-    <t>P09-1_Main_RightMenu</t>
-  </si>
-  <si>
-    <t>P10-1_Main_AllMenu</t>
-  </si>
-  <si>
-    <t>P11-1_Popup_Setting</t>
-  </si>
-  <si>
-    <t>P12-1_Popup_Alert</t>
-  </si>
-  <si>
-    <t>P13-1_Popup_BottomSheet</t>
-  </si>
-  <si>
-    <t>P14-1_Popup_ToastMessage</t>
-  </si>
-  <si>
-    <t>F01-1_AppBar</t>
-  </si>
-  <si>
-    <t>F02-1_BottomNavigation</t>
-  </si>
-  <si>
-    <t>F03-1_Drawer</t>
-  </si>
-  <si>
-    <t>F05-1_PopupAlert</t>
-  </si>
-  <si>
-    <t>F06-1_BottomSheet</t>
-  </si>
-  <si>
-    <t>F07-1_ToastMessage</t>
-  </si>
-  <si>
-    <t>F04-1_PopupFull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C01-1_Buttons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C02-1_ToggleSwich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C03-1_InputForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C04-1_SildeBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C05-1_MessageBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C06-1_TabControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C07-1_Icons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C08-1_DarkMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템설정파일(임시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템설정파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프레임구성항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>local</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/.settings/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/websquare/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/css/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/fonts/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/js/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>websquare.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>config.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>websquare.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all.css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noto-sans-kr.css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Noto Sans KR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swiper.css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swiper.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P01-1_Main_ToDo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic - main frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic - sub frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic - popup frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C09-1_BasicMainFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C09-2_BasicSubFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C09-3_BasicPopupFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹스퀘어스튜디오설치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임시 프로젝트추가 및 경로설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일 doctype, viewport 속성 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일 css파일 설정(reset, lyout)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark모드 컬러값 변수처리 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본고딕폰트css작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본고딕웹폰트파일변환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐러셀 라이브러리 css작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐러셀 라이브러리 커스터마이징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹스퀘어 라이선스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">로그인화면 웹?앱? 하이브리드앱? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">디바이스UI 세로사이즈에 포함, 불포함 </t>
-  </si>
-  <si>
-    <t>font-stretch(장평) 웹폰트 적용불가</t>
-  </si>
-  <si>
-    <t>핸드폰 모델별 아이폰하단메뉴 높이</t>
-  </si>
-  <si>
-    <t>필터항목 component는 어떤걸로? 현재는 체크박스</t>
-  </si>
-  <si>
-    <t>날짜입력폼 native로 하는건 어떨지</t>
-  </si>
-  <si>
-    <t>체크박스 체크된 이미지 필요 계속버튼 활성이미지 필요</t>
-  </si>
-  <si>
-    <t>레이아웃 다시 잡기 flex direction column</t>
-  </si>
-  <si>
-    <t>화면분할 4분할</t>
-  </si>
-  <si>
-    <t>dark모드</t>
-  </si>
-  <si>
-    <t>캘린더 2종 그냥캘린더 스케줄캘린더</t>
-  </si>
-  <si>
-    <t>알림 push 화면</t>
-  </si>
-  <si>
-    <t>figma : sang1009@naver.com // 0504tkdwns!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>component</t>
+    <t>schedule calendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10-1_ScheduleCalendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1129,7 +1137,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1150,7 +1158,7 @@
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="str">
         <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B10011)&amp;"건"</f>
-        <v>퍼블리싱업무 총물량 28건</v>
+        <v>퍼블리싱업무 총물량 29건</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1163,7 +1171,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="12" t="str">
         <f>"총완료 "&amp;COUNTA(J3:J10011)&amp;"건"</f>
-        <v>총완료 14건</v>
+        <v>총완료 15건</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="15"/>
@@ -1244,10 +1252,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1256,7 +1264,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>16</v>
@@ -1269,7 +1277,7 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M4" s="4"/>
     </row>
@@ -1278,10 +1286,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1290,7 +1298,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>16</v>
@@ -1303,7 +1311,7 @@
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M5" s="4"/>
     </row>
@@ -1312,10 +1320,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1324,7 +1332,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>16</v>
@@ -1337,7 +1345,7 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M6" s="4"/>
     </row>
@@ -1346,10 +1354,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1358,7 +1366,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>16</v>
@@ -1371,7 +1379,7 @@
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M7" s="4"/>
     </row>
@@ -1380,10 +1388,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1392,7 +1400,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>16</v>
@@ -1405,7 +1413,7 @@
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M8" s="4"/>
     </row>
@@ -1414,10 +1422,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1426,7 +1434,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>16</v>
@@ -1439,7 +1447,7 @@
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M9" s="4"/>
     </row>
@@ -1448,10 +1456,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1460,7 +1468,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>16</v>
@@ -1473,7 +1481,7 @@
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M10" s="4"/>
     </row>
@@ -1482,10 +1490,10 @@
         <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1494,7 +1502,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>16</v>
@@ -1507,7 +1515,7 @@
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M11" s="4"/>
     </row>
@@ -1516,10 +1524,10 @@
         <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1528,7 +1536,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>16</v>
@@ -1541,7 +1549,7 @@
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M12" s="4"/>
     </row>
@@ -1550,10 +1558,10 @@
         <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -1562,7 +1570,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>16</v>
@@ -1582,10 +1590,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1594,7 +1602,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>16</v>
@@ -1614,10 +1622,10 @@
         <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1626,7 +1634,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>16</v>
@@ -1646,19 +1654,19 @@
         <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>16</v>
@@ -1678,17 +1686,19 @@
         <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G17" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>16</v>
@@ -1696,7 +1706,9 @@
       <c r="I17" s="7">
         <v>44147</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="7">
+        <v>44147</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="13"/>
       <c r="M17" s="4"/>
@@ -1706,17 +1718,17 @@
         <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>16</v>
@@ -1734,17 +1746,17 @@
         <v>32</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>16</v>
@@ -1759,20 +1771,20 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>16</v>
@@ -1787,20 +1799,20 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>16</v>
@@ -1815,20 +1827,20 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>16</v>
@@ -1843,20 +1855,20 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>16</v>
@@ -1871,20 +1883,20 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>16</v>
@@ -1899,20 +1911,20 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>16</v>
@@ -1927,20 +1939,20 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>16</v>
@@ -1955,20 +1967,20 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>16</v>
@@ -1983,20 +1995,20 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>16</v>
@@ -2011,20 +2023,20 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>16</v>
@@ -2039,20 +2051,20 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>16</v>
@@ -2066,14 +2078,28 @@
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
+      <c r="B31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="7">
+        <v>44171</v>
+      </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="13"/>
@@ -3433,20 +3459,20 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>16</v>
@@ -3459,20 +3485,20 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>16</v>
@@ -3485,20 +3511,20 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>16</v>
@@ -3511,20 +3537,20 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>16</v>
@@ -3537,20 +3563,20 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>16</v>
@@ -3563,20 +3589,20 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>16</v>
@@ -3589,20 +3615,20 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>16</v>
@@ -3615,20 +3641,20 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>16</v>
@@ -3641,20 +3667,20 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>16</v>
@@ -3667,20 +3693,20 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>16</v>
@@ -3693,20 +3719,20 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>16</v>
@@ -3719,20 +3745,20 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>16</v>
@@ -3745,20 +3771,20 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>16</v>
@@ -3771,20 +3797,20 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>16</v>
@@ -3797,20 +3823,20 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>16</v>
@@ -3823,20 +3849,20 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>16</v>
@@ -4698,72 +4724,72 @@
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -1137,7 +1137,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebSquare_Studio\x64\websquare_20.0624\workspace\new_ucube_m\WebContent\static\web\pub\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02058983-2225-4D8C-BAFB-5CD53403E029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22635" windowHeight="7845"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="퍼블리싱목록" sheetId="3" r:id="rId1"/>
@@ -14,12 +20,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">퍼블리싱목록!$B$2:$M$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="141">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,7 +570,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,6 +739,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -747,6 +765,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -806,6 +829,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -889,7 +917,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -922,9 +950,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -957,6 +1002,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1132,12 +1194,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1171,7 +1233,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="12" t="str">
         <f>"총완료 "&amp;COUNTA(J3:J10011)&amp;"건"</f>
-        <v>총완료 15건</v>
+        <v>총완료 16건</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="15"/>
@@ -1724,9 +1786,11 @@
         <v>78</v>
       </c>
       <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G18" s="6" t="s">
         <v>92</v>
       </c>
@@ -1736,7 +1800,9 @@
       <c r="I18" s="7">
         <v>44150</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="7">
+        <v>44150</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="13"/>
       <c r="M18" s="4"/>
@@ -3226,7 +3292,7 @@
       <c r="M111" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:M2"/>
+  <autoFilter ref="B2:M2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="N1:N2"/>
   </mergeCells>
@@ -3238,7 +3304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4710,7 +4776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C3:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebSquare_Studio\x64\websquare_20.0624\workspace\new_ucube_m\WebContent\static\web\pub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02058983-2225-4D8C-BAFB-5CD53403E029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242ACD4A-3CE0-44D7-819A-A3DCB154244A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="141">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1199,7 +1199,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1233,7 +1233,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="12" t="str">
         <f>"총완료 "&amp;COUNTA(J3:J10011)&amp;"건"</f>
-        <v>총완료 16건</v>
+        <v>총완료 17건</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="15"/>
@@ -1818,9 +1818,11 @@
         <v>79</v>
       </c>
       <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G19" s="6" t="s">
         <v>92</v>
       </c>
@@ -1830,7 +1832,9 @@
       <c r="I19" s="7">
         <v>44151</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="7">
+        <v>44151</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="13"/>
       <c r="M19" s="4"/>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebSquare_Studio\x64\websquare_20.0624\workspace\new_ucube_m\WebContent\static\web\pub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242ACD4A-3CE0-44D7-819A-A3DCB154244A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732B2CDB-0502-4BD6-B27F-F01750506EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="141">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1199,7 +1199,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1233,7 +1233,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="12" t="str">
         <f>"총완료 "&amp;COUNTA(J3:J10011)&amp;"건"</f>
-        <v>총완료 17건</v>
+        <v>총완료 20건</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="15"/>
@@ -1850,9 +1850,11 @@
         <v>81</v>
       </c>
       <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G20" s="6" t="s">
         <v>137</v>
       </c>
@@ -1862,7 +1864,9 @@
       <c r="I20" s="7">
         <v>44152</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="7">
+        <v>44152</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="13"/>
       <c r="M20" s="4"/>
@@ -1878,9 +1882,11 @@
         <v>82</v>
       </c>
       <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G21" s="6" t="s">
         <v>137</v>
       </c>
@@ -1890,7 +1896,9 @@
       <c r="I21" s="7">
         <v>44153</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="7">
+        <v>44153</v>
+      </c>
       <c r="K21" s="4"/>
       <c r="L21" s="13"/>
       <c r="M21" s="4"/>
@@ -1906,9 +1914,11 @@
         <v>83</v>
       </c>
       <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G22" s="6" t="s">
         <v>137</v>
       </c>
@@ -1918,7 +1928,9 @@
       <c r="I22" s="7">
         <v>44154</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="7">
+        <v>44154</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="13"/>
       <c r="M22" s="4"/>
@@ -3312,7 +3324,7 @@
   <dimension ref="B1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebSquare_Studio\x64\websquare_20.0624\workspace\new_ucube_m\WebContent\static\web\pub\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732B2CDB-0502-4BD6-B27F-F01750506EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="퍼블리싱목록" sheetId="3" r:id="rId1"/>
@@ -20,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">퍼블리싱목록!$B$2:$M$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="145">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,13 +558,29 @@
   </si>
   <si>
     <t>C10-1_ScheduleCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C11-1_GridView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-1_TableLayout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -767,7 +777,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -831,7 +841,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +927,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -950,26 +960,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1002,23 +995,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1194,12 +1170,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1220,7 +1196,7 @@
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="str">
         <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B10011)&amp;"건"</f>
-        <v>퍼블리싱업무 총물량 29건</v>
+        <v>퍼블리싱업무 총물량 31건</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1233,7 +1209,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="12" t="str">
         <f>"총완료 "&amp;COUNTA(J3:J10011)&amp;"건"</f>
-        <v>총완료 20건</v>
+        <v>총완료 22건</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="15"/>
@@ -1946,9 +1922,11 @@
         <v>84</v>
       </c>
       <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G23" s="6" t="s">
         <v>137</v>
       </c>
@@ -1958,7 +1936,9 @@
       <c r="I23" s="7">
         <v>44157</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="7">
+        <v>44157</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="13"/>
       <c r="M23" s="4"/>
@@ -1974,9 +1954,11 @@
         <v>85</v>
       </c>
       <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G24" s="6" t="s">
         <v>137</v>
       </c>
@@ -1986,7 +1968,9 @@
       <c r="I24" s="7">
         <v>44159</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="7">
+        <v>44159</v>
+      </c>
       <c r="K24" s="4"/>
       <c r="L24" s="13"/>
       <c r="M24" s="4"/>
@@ -2188,28 +2172,56 @@
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
+      <c r="B32" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="7">
+        <v>44172</v>
+      </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="13"/>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
+      <c r="B33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="7">
+        <v>44173</v>
+      </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="13"/>
@@ -3308,7 +3320,7 @@
       <c r="M111" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:M2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:M2"/>
   <mergeCells count="1">
     <mergeCell ref="N1:N2"/>
   </mergeCells>
@@ -3320,7 +3332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4792,7 +4804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="145">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -777,7 +777,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -841,7 +841,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,7 +1175,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1209,7 +1209,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="12" t="str">
         <f>"총완료 "&amp;COUNTA(J3:J10011)&amp;"건"</f>
-        <v>총완료 22건</v>
+        <v>총완료 23건</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="15"/>
@@ -1986,9 +1986,11 @@
         <v>86</v>
       </c>
       <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G25" s="6" t="s">
         <v>137</v>
       </c>
@@ -1998,7 +2000,9 @@
       <c r="I25" s="7">
         <v>44160</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="7">
+        <v>44160</v>
+      </c>
       <c r="K25" s="4"/>
       <c r="L25" s="13"/>
       <c r="M25" s="4"/>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebSquare_Studio\x64\websquare_20.0624\workspace\new_ucube_m\WebContent\static\web\pub\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA1E228-3E41-427B-AE26-802C3FD11C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="퍼블리싱목록" sheetId="3" r:id="rId1"/>
@@ -14,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">퍼블리싱목록!$B$2:$M$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="145">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -580,7 +586,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -777,7 +783,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -841,7 +847,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -927,7 +933,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -960,9 +966,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -995,6 +1018,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1170,12 +1210,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1209,7 +1249,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="12" t="str">
         <f>"총완료 "&amp;COUNTA(J3:J10011)&amp;"건"</f>
-        <v>총완료 23건</v>
+        <v>총완료 25건</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="15"/>
@@ -2018,9 +2058,11 @@
         <v>87</v>
       </c>
       <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G26" s="6" t="s">
         <v>137</v>
       </c>
@@ -2030,7 +2072,9 @@
       <c r="I26" s="7">
         <v>44161</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="7">
+        <v>44161</v>
+      </c>
       <c r="K26" s="4"/>
       <c r="L26" s="13"/>
       <c r="M26" s="4"/>
@@ -2046,9 +2090,11 @@
         <v>88</v>
       </c>
       <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G27" s="6" t="s">
         <v>137</v>
       </c>
@@ -2058,7 +2104,9 @@
       <c r="I27" s="7">
         <v>44164</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="J27" s="7">
+        <v>44164</v>
+      </c>
       <c r="K27" s="4"/>
       <c r="L27" s="13"/>
       <c r="M27" s="4"/>
@@ -3324,7 +3372,7 @@
       <c r="M111" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:M2"/>
+  <autoFilter ref="B2:M2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="N1:N2"/>
   </mergeCells>
@@ -3336,7 +3384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4808,7 +4856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C3:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebSquare_Studio\x64\websquare_20.0624\workspace\new_ucube_m\WebContent\static\web\pub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA1E228-3E41-427B-AE26-802C3FD11C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD89AEAA-EEFA-4DD0-9A01-5F95BBD841F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,7 +638,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,6 +654,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +749,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1215,7 +1239,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2006,10 +2030,10 @@
         <v>16</v>
       </c>
       <c r="I24" s="7">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="J24" s="7">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="13"/>
@@ -2038,10 +2062,10 @@
         <v>16</v>
       </c>
       <c r="I25" s="7">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="J25" s="7">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="13"/>
@@ -2070,10 +2094,10 @@
         <v>16</v>
       </c>
       <c r="I26" s="7">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="J26" s="7">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="13"/>
@@ -2102,10 +2126,10 @@
         <v>16</v>
       </c>
       <c r="I27" s="7">
-        <v>44164</v>
+        <v>44161</v>
       </c>
       <c r="J27" s="7">
-        <v>44164</v>
+        <v>44161</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="13"/>
@@ -2132,7 +2156,7 @@
         <v>16</v>
       </c>
       <c r="I28" s="7">
-        <v>44166</v>
+        <v>44164</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -2160,7 +2184,7 @@
         <v>16</v>
       </c>
       <c r="I29" s="7">
-        <v>44167</v>
+        <v>44165</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -2188,40 +2212,38 @@
         <v>16</v>
       </c>
       <c r="I30" s="7">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="13"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="17">
         <v>0</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="18"/>
+      <c r="G31" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="7">
-        <v>44171</v>
-      </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="4"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="16"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
@@ -2244,7 +2266,7 @@
         <v>16</v>
       </c>
       <c r="I32" s="7">
-        <v>44172</v>
+        <v>44167</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -2272,7 +2294,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="7">
-        <v>44173</v>
+        <v>44168</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebSquare_Studio\x64\websquare_20.0624\workspace\new_ucube_m\WebContent\static\web\pub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD89AEAA-EEFA-4DD0-9A01-5F95BBD841F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3F5514-7589-4B63-B68D-6080AE700AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="145">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1239,7 +1239,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1273,7 +1273,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="12" t="str">
         <f>"총완료 "&amp;COUNTA(J3:J10011)&amp;"건"</f>
-        <v>총완료 25건</v>
+        <v>총완료 28건</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="15"/>
@@ -2146,9 +2146,11 @@
         <v>111</v>
       </c>
       <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G28" s="6" t="s">
         <v>137</v>
       </c>
@@ -2158,7 +2160,9 @@
       <c r="I28" s="7">
         <v>44164</v>
       </c>
-      <c r="J28" s="6"/>
+      <c r="J28" s="7">
+        <v>44164</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="13"/>
       <c r="M28" s="4"/>
@@ -2174,9 +2178,11 @@
         <v>112</v>
       </c>
       <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G29" s="6" t="s">
         <v>137</v>
       </c>
@@ -2186,7 +2192,9 @@
       <c r="I29" s="7">
         <v>44165</v>
       </c>
-      <c r="J29" s="6"/>
+      <c r="J29" s="7">
+        <v>44165</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="13"/>
       <c r="M29" s="4"/>
@@ -2202,9 +2210,11 @@
         <v>113</v>
       </c>
       <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G30" s="6" t="s">
         <v>137</v>
       </c>
@@ -2214,7 +2224,9 @@
       <c r="I30" s="7">
         <v>44166</v>
       </c>
-      <c r="J30" s="6"/>
+      <c r="J30" s="7">
+        <v>44166</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="13"/>
       <c r="M30" s="4"/>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebSquare_Studio\x64\websquare_20.0624\workspace\new_ucube_m\WebContent\static\web\pub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3F5514-7589-4B63-B68D-6080AE700AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8E990D-DAAC-47F2-8782-60110AFBC146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -748,9 +748,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +764,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1239,7 +1239,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1276,7 +1276,7 @@
         <v>총완료 28건</v>
       </c>
       <c r="M1" s="8"/>
-      <c r="N1" s="15"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -1313,7 +1313,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="15"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -2231,31 +2231,31 @@
       <c r="L30" s="13"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+    <row r="31" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="16">
         <v>0</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="16"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="15"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
@@ -3458,7 +3458,7 @@
         <v>총완료 0건</v>
       </c>
       <c r="M1" s="8"/>
-      <c r="N1" s="15"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -3495,7 +3495,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="15"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebSquare_Studio\x64\websquare_20.0624\workspace\new_ucube_m\WebContent\static\web\pub\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8E990D-DAAC-47F2-8782-60110AFBC146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="퍼블리싱목록" sheetId="3" r:id="rId1"/>
@@ -20,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">퍼블리싱목록!$B$2:$M$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="145">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,7 +580,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -807,7 +801,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -871,7 +865,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,7 +951,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -990,26 +984,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1042,23 +1019,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1234,12 +1194,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1273,7 +1233,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="12" t="str">
         <f>"총완료 "&amp;COUNTA(J3:J10011)&amp;"건"</f>
-        <v>총완료 28건</v>
+        <v>총완료 29건</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="21"/>
@@ -2268,9 +2228,11 @@
         <v>142</v>
       </c>
       <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G32" s="6" t="s">
         <v>137</v>
       </c>
@@ -2280,7 +2242,9 @@
       <c r="I32" s="7">
         <v>44167</v>
       </c>
-      <c r="J32" s="6"/>
+      <c r="J32" s="7">
+        <v>44167</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="13"/>
       <c r="M32" s="4"/>
@@ -3406,7 +3370,7 @@
       <c r="M111" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:M2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:M2"/>
   <mergeCells count="1">
     <mergeCell ref="N1:N2"/>
   </mergeCells>
@@ -3418,7 +3382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4890,7 +4854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="147">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,6 +574,14 @@
   </si>
   <si>
     <t>C12-1_TableLayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C09-2-1_BasicSubFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic - sub frame - whitebg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1195,11 +1203,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N111"/>
+  <dimension ref="B1:N112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1219,8 +1227,8 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="str">
-        <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B10011)&amp;"건"</f>
-        <v>퍼블리싱업무 총물량 31건</v>
+        <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B10012)&amp;"건"</f>
+        <v>퍼블리싱업무 총물량 32건</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1232,8 +1240,8 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="12" t="str">
-        <f>"총완료 "&amp;COUNTA(J3:J10011)&amp;"건"</f>
-        <v>총완료 29건</v>
+        <f>"총완료 "&amp;COUNTA(J3:J10012)&amp;"건"</f>
+        <v>총완료 30건</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="21"/>
@@ -2161,13 +2169,13 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -2182,87 +2190,89 @@
         <v>16</v>
       </c>
       <c r="I30" s="7">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="J30" s="7">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="13"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="15" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="7">
+        <v>44166</v>
+      </c>
+      <c r="J31" s="7">
+        <v>44166</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D32" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E32" s="16">
         <v>0</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17" t="s">
+      <c r="F32" s="17"/>
+      <c r="G32" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="15"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="7">
-        <v>44167</v>
-      </c>
-      <c r="J32" s="7">
-        <v>44167</v>
-      </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="4"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="15"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G33" s="6" t="s">
         <v>137</v>
       </c>
@@ -2270,22 +2280,38 @@
         <v>16</v>
       </c>
       <c r="I33" s="7">
-        <v>44168</v>
-      </c>
-      <c r="J33" s="6"/>
+        <v>44167</v>
+      </c>
+      <c r="J33" s="7">
+        <v>44167</v>
+      </c>
       <c r="K33" s="6"/>
       <c r="L33" s="13"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
+      <c r="B34" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="7">
+        <v>44168</v>
+      </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="13"/>
@@ -2297,7 +2323,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -2351,7 +2377,7 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -3368,6 +3394,20 @@
       <c r="K111" s="6"/>
       <c r="L111" s="13"/>
       <c r="M111" s="4"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:M2"/>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -569,19 +569,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>C12-1_TableLayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C09-2-1_BasicSubFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic - sub frame - whitebg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>table layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C12-1_TableLayout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C09-2-1_BasicSubFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic - sub frame - whitebg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1207,7 +1207,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2169,13 +2169,13 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -2291,13 +2291,13 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -557,22 +557,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C10-1_ScheduleCalendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>grid view</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C11-1_GridView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C12-1_TableLayout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C09-2-1_BasicSubFrame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -582,6 +570,18 @@
   </si>
   <si>
     <t>table layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C99-1_ScheduleCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10-1_GridView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C11-1_TableLayout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +809,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -873,7 +873,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,7 +1207,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2169,13 +2169,13 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -2239,7 +2239,7 @@
         <v>56</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E32" s="16">
         <v>0</v>
@@ -2259,13 +2259,13 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -2291,13 +2291,13 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebSquare_Studio\x64\websquare_20.0624\workspace\new_ucube_m\WebContent\static\web\pub\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A95883E-B47E-46E7-91F8-0851C2D04FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="퍼블리싱목록" sheetId="3" r:id="rId1"/>
@@ -14,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">퍼블리싱목록!$B$2:$M$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="147">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,7 +594,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -704,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,15 +765,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -809,7 +806,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -873,7 +870,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,7 +956,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -992,9 +989,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1027,6 +1041,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1202,12 +1233,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1227,8 +1258,8 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="str">
-        <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B10012)&amp;"건"</f>
-        <v>퍼블리싱업무 총물량 32건</v>
+        <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B10011)&amp;"건"</f>
+        <v>퍼블리싱업무 총물량 31건</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1240,11 +1271,11 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="12" t="str">
-        <f>"총완료 "&amp;COUNTA(J3:J10012)&amp;"건"</f>
-        <v>총완료 30건</v>
+        <f>"총완료 "&amp;COUNTA(J3:J10011)&amp;"건"</f>
+        <v>총완료 31건</v>
       </c>
       <c r="M1" s="8"/>
-      <c r="N1" s="21"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -1281,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="21"/>
+      <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -2231,41 +2262,47 @@
       <c r="L31" s="13"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="15" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="16">
-        <v>0</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17" t="s">
+      <c r="D32" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="15"/>
+      <c r="I32" s="7">
+        <v>44167</v>
+      </c>
+      <c r="J32" s="7">
+        <v>44167</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="4"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -2280,38 +2317,24 @@
         <v>16</v>
       </c>
       <c r="I33" s="7">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="J33" s="7">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="13"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="7">
-        <v>44168</v>
-      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="13"/>
@@ -2323,7 +2346,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -2377,7 +2400,7 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -3395,22 +3418,8 @@
       <c r="L111" s="13"/>
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:M2"/>
+  <autoFilter ref="B2:M2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="N1:N2"/>
   </mergeCells>
@@ -3422,11 +3431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3446,7 +3455,7 @@
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="str">
         <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B9987)&amp;"건"</f>
-        <v>퍼블리싱업무 총물량 16건</v>
+        <v>퍼블리싱업무 총물량 17건</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -3462,7 +3471,7 @@
         <v>총완료 0건</v>
       </c>
       <c r="M1" s="8"/>
-      <c r="N1" s="21"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -3499,7 +3508,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="21"/>
+      <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -4072,13 +4081,25 @@
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="B30" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -4894,7 +4915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C3:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebSquare_Studio\x64\websquare_20.0624\workspace\new_ucube_m\WebContent\static\web\pub\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A95883E-B47E-46E7-91F8-0851C2D04FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="퍼블리싱목록" sheetId="3" r:id="rId1"/>
     <sheet name="대기" sheetId="4" r:id="rId2"/>
     <sheet name="메모" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">퍼블리싱목록!$B$2:$M$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="150">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,12 +584,22 @@
   <si>
     <t>C11-1_TableLayout</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할부중</t>
+  </si>
+  <si>
+    <t>할부완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2097-64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -710,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,6 +773,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -806,7 +814,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -870,7 +878,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -956,7 +964,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -989,26 +997,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1041,23 +1032,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1233,12 +1207,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3419,7 +3393,7 @@
       <c r="M111" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:M2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:M2"/>
   <mergeCells count="1">
     <mergeCell ref="N1:N2"/>
   </mergeCells>
@@ -3431,7 +3405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4915,7 +4889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5002,4 +4976,410 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1">
+        <v>36</v>
+      </c>
+      <c r="D1" s="19">
+        <v>819400</v>
+      </c>
+      <c r="E1" s="19">
+        <v>907484</v>
+      </c>
+      <c r="F1" s="19">
+        <v>17690</v>
+      </c>
+      <c r="G1">
+        <v>14</v>
+      </c>
+      <c r="H1" s="19">
+        <v>472918</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2" s="19">
+        <v>819400</v>
+      </c>
+      <c r="E2" s="19">
+        <v>907484</v>
+      </c>
+      <c r="F2" s="19">
+        <v>17690</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2" s="19">
+        <v>472918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3" s="19">
+        <v>819400</v>
+      </c>
+      <c r="E3" s="19">
+        <v>907484</v>
+      </c>
+      <c r="F3" s="19">
+        <v>17690</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" s="19">
+        <v>472918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4" s="19">
+        <v>819400</v>
+      </c>
+      <c r="E4" s="19">
+        <v>907484</v>
+      </c>
+      <c r="F4" s="19">
+        <v>17690</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4" s="19">
+        <v>472918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5" s="19">
+        <v>819400</v>
+      </c>
+      <c r="E5" s="19">
+        <v>907484</v>
+      </c>
+      <c r="F5" s="19">
+        <v>17690</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5" s="19">
+        <v>472918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6" s="19">
+        <v>819400</v>
+      </c>
+      <c r="E6" s="19">
+        <v>907484</v>
+      </c>
+      <c r="F6" s="19">
+        <v>17690</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6" s="19">
+        <v>472918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7" s="19">
+        <v>819400</v>
+      </c>
+      <c r="E7" s="19">
+        <v>907484</v>
+      </c>
+      <c r="F7" s="19">
+        <v>17690</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+      <c r="D8" s="19">
+        <v>819400</v>
+      </c>
+      <c r="E8" s="19">
+        <v>907484</v>
+      </c>
+      <c r="F8" s="19">
+        <v>17690</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9" s="19">
+        <v>819400</v>
+      </c>
+      <c r="E9" s="19">
+        <v>907484</v>
+      </c>
+      <c r="F9" s="19">
+        <v>17690</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10">
+        <v>36</v>
+      </c>
+      <c r="D10" s="19">
+        <v>819400</v>
+      </c>
+      <c r="E10" s="19">
+        <v>907484</v>
+      </c>
+      <c r="F10" s="19">
+        <v>17690</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11">
+        <v>36</v>
+      </c>
+      <c r="D11" s="19">
+        <v>819400</v>
+      </c>
+      <c r="E11" s="19">
+        <v>907484</v>
+      </c>
+      <c r="F11" s="19">
+        <v>17690</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12">
+        <v>36</v>
+      </c>
+      <c r="D12" s="19">
+        <v>819400</v>
+      </c>
+      <c r="E12" s="19">
+        <v>907484</v>
+      </c>
+      <c r="F12" s="19">
+        <v>17690</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+      <c r="D13" s="19">
+        <v>819400</v>
+      </c>
+      <c r="E13" s="19">
+        <v>907484</v>
+      </c>
+      <c r="F13" s="19">
+        <v>17690</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14">
+        <v>36</v>
+      </c>
+      <c r="D14" s="19">
+        <v>819400</v>
+      </c>
+      <c r="E14" s="19">
+        <v>907484</v>
+      </c>
+      <c r="F14" s="19">
+        <v>17690</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15">
+        <v>36</v>
+      </c>
+      <c r="D15" s="19">
+        <v>819400</v>
+      </c>
+      <c r="E15" s="19">
+        <v>907484</v>
+      </c>
+      <c r="F15" s="19">
+        <v>17690</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="152">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,10 +558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>grid view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C09-2-1_BasicSubFrame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,6 +590,18 @@
   </si>
   <si>
     <t>A2097-64</t>
+  </si>
+  <si>
+    <t>grid view - type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10-2_GridView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid view - type2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1208,11 +1216,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N111"/>
+  <dimension ref="B1:N112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1232,8 +1240,8 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="str">
-        <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B10011)&amp;"건"</f>
-        <v>퍼블리싱업무 총물량 31건</v>
+        <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B10012)&amp;"건"</f>
+        <v>퍼블리싱업무 총물량 32건</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1245,8 +1253,8 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="12" t="str">
-        <f>"총완료 "&amp;COUNTA(J3:J10011)&amp;"건"</f>
-        <v>총완료 31건</v>
+        <f>"총완료 "&amp;COUNTA(J3:J10012)&amp;"건"</f>
+        <v>총완료 32건</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="18"/>
@@ -2174,13 +2182,13 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -2238,13 +2246,13 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -2270,13 +2278,13 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -2291,25 +2299,43 @@
         <v>16</v>
       </c>
       <c r="I33" s="7">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="J33" s="7">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="13"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="B34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="7">
+        <v>44168</v>
+      </c>
+      <c r="J34" s="7">
+        <v>44168</v>
+      </c>
       <c r="K34" s="6"/>
       <c r="L34" s="13"/>
       <c r="M34" s="4"/>
@@ -2320,7 +2346,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -2374,7 +2400,7 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -3391,6 +3417,20 @@
       <c r="K111" s="6"/>
       <c r="L111" s="13"/>
       <c r="M111" s="4"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:M2"/>
@@ -4062,7 +4102,7 @@
         <v>56</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30" s="16">
         <v>0</v>
@@ -4990,10 +5030,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1">
         <v>36</v>
@@ -5016,10 +5056,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2">
         <v>36</v>
@@ -5042,10 +5082,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3">
         <v>36</v>
@@ -5068,10 +5108,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4">
         <v>36</v>
@@ -5094,10 +5134,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5">
         <v>36</v>
@@ -5120,10 +5160,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6">
         <v>36</v>
@@ -5146,10 +5186,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
         <v>148</v>
-      </c>
-      <c r="B7" t="s">
-        <v>149</v>
       </c>
       <c r="C7">
         <v>36</v>
@@ -5172,10 +5212,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
         <v>148</v>
-      </c>
-      <c r="B8" t="s">
-        <v>149</v>
       </c>
       <c r="C8">
         <v>36</v>
@@ -5198,10 +5238,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
         <v>148</v>
-      </c>
-      <c r="B9" t="s">
-        <v>149</v>
       </c>
       <c r="C9">
         <v>36</v>
@@ -5224,10 +5264,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
         <v>148</v>
-      </c>
-      <c r="B10" t="s">
-        <v>149</v>
       </c>
       <c r="C10">
         <v>36</v>
@@ -5250,10 +5290,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
         <v>148</v>
-      </c>
-      <c r="B11" t="s">
-        <v>149</v>
       </c>
       <c r="C11">
         <v>36</v>
@@ -5276,10 +5316,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
         <v>148</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
       </c>
       <c r="C12">
         <v>36</v>
@@ -5302,10 +5342,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
         <v>148</v>
-      </c>
-      <c r="B13" t="s">
-        <v>149</v>
       </c>
       <c r="C13">
         <v>36</v>
@@ -5328,10 +5368,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" t="s">
         <v>148</v>
-      </c>
-      <c r="B14" t="s">
-        <v>149</v>
       </c>
       <c r="C14">
         <v>36</v>
@@ -5354,10 +5394,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s">
         <v>148</v>
-      </c>
-      <c r="B15" t="s">
-        <v>149</v>
       </c>
       <c r="C15">
         <v>36</v>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="156">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -601,6 +601,22 @@
   </si>
   <si>
     <t>grid view - type2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥화면 - 전체메뉴2안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P10-2_Main_AllMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -778,10 +794,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,7 +838,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -886,7 +902,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1216,11 +1232,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N112"/>
+  <dimension ref="B1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1229,8 +1245,8 @@
     <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="11" customWidth="1"/>
     <col min="7" max="7" width="17.875" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="11" customWidth="1"/>
     <col min="9" max="11" width="11.5" style="11" customWidth="1"/>
@@ -1240,8 +1256,8 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="str">
-        <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B10012)&amp;"건"</f>
-        <v>퍼블리싱업무 총물량 32건</v>
+        <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B10013)&amp;"건"</f>
+        <v>퍼블리싱업무 총물량 49건</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1253,11 +1269,11 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="12" t="str">
-        <f>"총완료 "&amp;COUNTA(J3:J10012)&amp;"건"</f>
+        <f>"총완료 "&amp;COUNTA(J3:J10013)&amp;"건"</f>
         <v>총완료 32건</v>
       </c>
       <c r="M1" s="8"/>
-      <c r="N1" s="18"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -1282,10 +1298,10 @@
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>9</v>
@@ -1294,7 +1310,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="18"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -2299,10 +2315,10 @@
         <v>16</v>
       </c>
       <c r="I33" s="7">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="J33" s="7">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="13"/>
@@ -2331,37 +2347,63 @@
         <v>16</v>
       </c>
       <c r="I34" s="7">
-        <v>44168</v>
+        <v>44171</v>
       </c>
       <c r="J34" s="7">
-        <v>44168</v>
+        <v>44171</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="13"/>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
+      <c r="B35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="G35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="7">
+        <v>44172</v>
+      </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="13"/>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
+      <c r="B36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="G36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -2369,13 +2411,25 @@
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
+      <c r="B37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="G37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -2383,13 +2437,25 @@
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
+      <c r="B38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="G38" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -2397,13 +2463,25 @@
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
+      <c r="B39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="G39" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -2411,13 +2489,25 @@
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="G40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -2425,13 +2515,25 @@
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -2439,13 +2541,25 @@
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="G42" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -2453,13 +2567,25 @@
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="G43" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -2467,13 +2593,25 @@
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="G44" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -2481,13 +2619,25 @@
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="G45" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -2495,13 +2645,25 @@
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="G46" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -2509,13 +2671,25 @@
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="G47" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -2523,13 +2697,25 @@
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -2537,13 +2723,25 @@
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="G49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -2551,13 +2749,25 @@
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
       <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="G50" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -2565,13 +2775,25 @@
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="G51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -3431,6 +3653,20 @@
       <c r="K112" s="6"/>
       <c r="L112" s="13"/>
       <c r="M112" s="4"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:M2"/>
@@ -3449,7 +3685,7 @@
   <dimension ref="B1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3469,7 +3705,7 @@
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="str">
         <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B9987)&amp;"건"</f>
-        <v>퍼블리싱업무 총물량 17건</v>
+        <v>퍼블리싱업무 총물량 1건</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -3485,7 +3721,7 @@
         <v>총완료 0건</v>
       </c>
       <c r="M1" s="8"/>
-      <c r="N1" s="18"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -3522,7 +3758,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="18"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -3665,25 +3901,13 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -3691,25 +3915,13 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -3717,25 +3929,13 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -3743,25 +3943,13 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -3769,25 +3957,13 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -3795,25 +3971,13 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -3821,25 +3985,13 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -3847,25 +3999,13 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -3873,25 +4013,13 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -3899,25 +4027,13 @@
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -3925,25 +4041,13 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -3951,25 +4055,13 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -3977,25 +4069,13 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -4003,25 +4083,13 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -4029,25 +4097,13 @@
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -4055,25 +4111,13 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -5038,19 +5082,19 @@
       <c r="C1">
         <v>36</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="18">
         <v>819400</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="18">
         <v>907484</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="18">
         <v>17690</v>
       </c>
       <c r="G1">
         <v>14</v>
       </c>
-      <c r="H1" s="19">
+      <c r="H1" s="18">
         <v>472918</v>
       </c>
     </row>
@@ -5064,19 +5108,19 @@
       <c r="C2">
         <v>36</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>819400</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>907484</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>17690</v>
       </c>
       <c r="G2">
         <v>14</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="18">
         <v>472918</v>
       </c>
     </row>
@@ -5090,19 +5134,19 @@
       <c r="C3">
         <v>36</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>819400</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>907484</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>17690</v>
       </c>
       <c r="G3">
         <v>14</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <v>472918</v>
       </c>
     </row>
@@ -5116,19 +5160,19 @@
       <c r="C4">
         <v>36</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>819400</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>907484</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>17690</v>
       </c>
       <c r="G4">
         <v>14</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>472918</v>
       </c>
     </row>
@@ -5142,19 +5186,19 @@
       <c r="C5">
         <v>36</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>819400</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>907484</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>17690</v>
       </c>
       <c r="G5">
         <v>14</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>472918</v>
       </c>
     </row>
@@ -5168,19 +5212,19 @@
       <c r="C6">
         <v>36</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>819400</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>907484</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>17690</v>
       </c>
       <c r="G6">
         <v>14</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>472918</v>
       </c>
     </row>
@@ -5194,19 +5238,19 @@
       <c r="C7">
         <v>36</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>819400</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>907484</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>17690</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>0</v>
       </c>
     </row>
@@ -5220,19 +5264,19 @@
       <c r="C8">
         <v>36</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>819400</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>907484</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>17690</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>0</v>
       </c>
     </row>
@@ -5246,19 +5290,19 @@
       <c r="C9">
         <v>36</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>819400</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>907484</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>17690</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <v>0</v>
       </c>
     </row>
@@ -5272,19 +5316,19 @@
       <c r="C10">
         <v>36</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>819400</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>907484</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>17690</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="18">
         <v>0</v>
       </c>
     </row>
@@ -5298,19 +5342,19 @@
       <c r="C11">
         <v>36</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>819400</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>907484</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>17690</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="18">
         <v>0</v>
       </c>
     </row>
@@ -5324,19 +5368,19 @@
       <c r="C12">
         <v>36</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>819400</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>907484</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>17690</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <v>0</v>
       </c>
     </row>
@@ -5350,19 +5394,19 @@
       <c r="C13">
         <v>36</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>819400</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>907484</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>17690</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <v>0</v>
       </c>
     </row>
@@ -5376,19 +5420,19 @@
       <c r="C14">
         <v>36</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>819400</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>907484</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>17690</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <v>0</v>
       </c>
     </row>
@@ -5402,19 +5446,19 @@
       <c r="C15">
         <v>36</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>819400</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>907484</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>17690</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="18">
         <v>0</v>
       </c>
     </row>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="158">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바닥화면 - 전체메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,9 +294,6 @@
     <t>P09-1_Main_RightMenu</t>
   </si>
   <si>
-    <t>P10-1_Main_AllMenu</t>
-  </si>
-  <si>
     <t>P11-1_Popup_Setting</t>
   </si>
   <si>
@@ -367,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시스템설정파일(임시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시스템설정파일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -604,19 +593,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바닥화면 - 전체메뉴2안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P10-2_Main_AllMenu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시작일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>완료일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainPage,가입정보조회,공통영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥화면 - 전체메뉴 - type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥화면 - 전체메뉴 - type2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P10-1_Main_AllMenu_type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P10-2_Main_AllMenu_type2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1235,8 +1244,8 @@
   <dimension ref="B1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1247,7 +1256,7 @@
     <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="11" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="11" customWidth="1"/>
     <col min="9" max="11" width="11.5" style="11" customWidth="1"/>
     <col min="12" max="12" width="30.625" style="14" customWidth="1"/>
@@ -1298,10 +1307,10 @@
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>9</v>
@@ -1309,7 +1318,9 @@
       <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
@@ -1351,10 +1362,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1363,7 +1374,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>16</v>
@@ -1376,7 +1387,7 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M4" s="4"/>
     </row>
@@ -1385,10 +1396,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1397,7 +1408,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>16</v>
@@ -1410,7 +1421,7 @@
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M5" s="4"/>
     </row>
@@ -1419,10 +1430,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1431,7 +1442,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>16</v>
@@ -1444,7 +1455,7 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M6" s="4"/>
     </row>
@@ -1453,10 +1464,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1465,7 +1476,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>16</v>
@@ -1478,7 +1489,7 @@
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M7" s="4"/>
     </row>
@@ -1487,10 +1498,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1499,7 +1510,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>16</v>
@@ -1512,7 +1523,7 @@
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M8" s="4"/>
     </row>
@@ -1521,10 +1532,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1533,7 +1544,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>16</v>
@@ -1546,7 +1557,7 @@
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M9" s="4"/>
     </row>
@@ -1555,10 +1566,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1567,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>16</v>
@@ -1580,7 +1591,7 @@
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M10" s="4"/>
     </row>
@@ -1589,10 +1600,10 @@
         <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1601,7 +1612,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>16</v>
@@ -1614,7 +1625,7 @@
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M11" s="4"/>
     </row>
@@ -1623,10 +1634,10 @@
         <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1635,7 +1646,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>16</v>
@@ -1648,7 +1659,7 @@
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M12" s="4"/>
     </row>
@@ -1657,10 +1668,10 @@
         <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -1669,7 +1680,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>16</v>
@@ -1689,10 +1700,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1701,7 +1712,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>16</v>
@@ -1721,10 +1732,10 @@
         <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1733,7 +1744,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>16</v>
@@ -1753,10 +1764,10 @@
         <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1765,7 +1776,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>16</v>
@@ -1785,10 +1796,10 @@
         <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1797,7 +1808,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>16</v>
@@ -1817,10 +1828,10 @@
         <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1829,7 +1840,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>16</v>
@@ -1849,10 +1860,10 @@
         <v>32</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1861,7 +1872,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>16</v>
@@ -1878,13 +1889,13 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1893,7 +1904,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>16</v>
@@ -1913,10 +1924,10 @@
         <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -1925,7 +1936,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>16</v>
@@ -1945,10 +1956,10 @@
         <v>34</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -1957,7 +1968,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>16</v>
@@ -1977,10 +1988,10 @@
         <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -1989,7 +2000,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>16</v>
@@ -2009,10 +2020,10 @@
         <v>36</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -2021,7 +2032,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>16</v>
@@ -2041,10 +2052,10 @@
         <v>37</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -2053,7 +2064,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>16</v>
@@ -2073,10 +2084,10 @@
         <v>38</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -2085,7 +2096,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>16</v>
@@ -2105,10 +2116,10 @@
         <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -2117,7 +2128,7 @@
         <v>14</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>16</v>
@@ -2134,13 +2145,13 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -2149,7 +2160,7 @@
         <v>14</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>16</v>
@@ -2166,13 +2177,13 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
@@ -2181,7 +2192,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>16</v>
@@ -2198,13 +2209,13 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -2213,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>16</v>
@@ -2230,13 +2241,13 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -2245,7 +2256,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>16</v>
@@ -2262,13 +2273,13 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -2277,7 +2288,7 @@
         <v>14</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>16</v>
@@ -2294,13 +2305,13 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -2309,7 +2320,7 @@
         <v>14</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>16</v>
@@ -2326,13 +2337,13 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -2341,7 +2352,7 @@
         <v>14</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>16</v>
@@ -2361,17 +2372,17 @@
         <v>40</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="10" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>16</v>
@@ -2381,7 +2392,9 @@
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="13"/>
+      <c r="L35" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
@@ -2389,17 +2402,17 @@
         <v>41</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="10" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>16</v>
@@ -2407,7 +2420,9 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="13"/>
+      <c r="L36" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
@@ -2415,17 +2430,17 @@
         <v>42</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="10" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>16</v>
@@ -2433,7 +2448,9 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="13"/>
+      <c r="L37" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
@@ -2441,17 +2458,17 @@
         <v>43</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="10" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>16</v>
@@ -2459,7 +2476,9 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
-      <c r="L38" s="13"/>
+      <c r="L38" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
@@ -2467,17 +2486,17 @@
         <v>44</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="10" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>16</v>
@@ -2485,7 +2504,9 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="13"/>
+      <c r="L39" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
@@ -2493,17 +2514,17 @@
         <v>45</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="6" t="s">
-        <v>58</v>
+      <c r="G40" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>16</v>
@@ -2511,7 +2532,9 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="13"/>
+      <c r="L40" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
@@ -2519,17 +2542,17 @@
         <v>46</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="6" t="s">
-        <v>58</v>
+      <c r="G41" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>16</v>
@@ -2537,7 +2560,9 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
-      <c r="L41" s="13"/>
+      <c r="L41" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
@@ -2545,17 +2570,17 @@
         <v>47</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" s="5">
         <v>0</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="10" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>16</v>
@@ -2563,7 +2588,9 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-      <c r="L42" s="13"/>
+      <c r="L42" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
@@ -2571,17 +2598,17 @@
         <v>48</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E43" s="5">
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="10" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>16</v>
@@ -2589,7 +2616,9 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="13"/>
+      <c r="L43" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
@@ -2597,17 +2626,17 @@
         <v>49</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="10" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>16</v>
@@ -2615,7 +2644,9 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="13"/>
+      <c r="L44" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
@@ -2623,17 +2654,17 @@
         <v>50</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E45" s="5">
         <v>0</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="10" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>16</v>
@@ -2641,25 +2672,27 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="13"/>
+      <c r="L45" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="E46" s="5">
         <v>0</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="10" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>16</v>
@@ -2667,25 +2700,27 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="13"/>
+      <c r="L46" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E47" s="5">
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="10" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>16</v>
@@ -2693,25 +2728,27 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="13"/>
+      <c r="L47" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E48" s="5">
         <v>0</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="6" t="s">
-        <v>58</v>
+      <c r="G48" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>16</v>
@@ -2719,25 +2756,27 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="13"/>
+      <c r="L48" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E49" s="5">
         <v>0</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="6" t="s">
-        <v>58</v>
+      <c r="G49" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>16</v>
@@ -2745,25 +2784,27 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="13"/>
+      <c r="L49" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E50" s="5">
         <v>0</v>
       </c>
       <c r="F50" s="6"/>
-      <c r="G50" s="6" t="s">
-        <v>58</v>
+      <c r="G50" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>16</v>
@@ -2771,25 +2812,27 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="13"/>
+      <c r="L50" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D51" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E51" s="5">
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="6" t="s">
-        <v>58</v>
+      <c r="G51" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>16</v>
@@ -2797,7 +2840,9 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="13"/>
+      <c r="L51" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
@@ -3685,7 +3730,7 @@
   <dimension ref="B1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3705,7 +3750,7 @@
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="str">
         <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B9987)&amp;"건"</f>
-        <v>퍼블리싱업무 총물량 1건</v>
+        <v>퍼블리싱업무 총물량 18건</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -3859,13 +3904,25 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -3873,13 +3930,25 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -3887,13 +3956,25 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -3901,13 +3982,25 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -3915,13 +4008,25 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -3929,13 +4034,25 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -3943,13 +4060,25 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -3957,13 +4086,25 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -3971,13 +4112,25 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -3985,13 +4138,25 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="G19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -3999,13 +4164,25 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -4013,13 +4190,25 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -4027,13 +4216,25 @@
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+      <c r="B22" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -4041,13 +4242,25 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
+      <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -4055,13 +4268,25 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -4069,13 +4294,25 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
+      <c r="B25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -4083,13 +4320,25 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
+      <c r="B26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -4140,20 +4389,20 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E30" s="16">
         <v>0</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H30" s="17" t="s">
         <v>16</v>
@@ -4987,72 +5236,72 @@
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5074,10 +5323,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C1">
         <v>36</v>
@@ -5100,10 +5349,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C2">
         <v>36</v>
@@ -5126,10 +5375,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C3">
         <v>36</v>
@@ -5152,10 +5401,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>36</v>
@@ -5178,10 +5427,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C5">
         <v>36</v>
@@ -5204,10 +5453,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C6">
         <v>36</v>
@@ -5230,10 +5479,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C7">
         <v>36</v>
@@ -5256,10 +5505,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C8">
         <v>36</v>
@@ -5282,10 +5531,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C9">
         <v>36</v>
@@ -5308,10 +5557,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C10">
         <v>36</v>
@@ -5334,10 +5583,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C11">
         <v>36</v>
@@ -5360,10 +5609,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C12">
         <v>36</v>
@@ -5386,10 +5635,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C13">
         <v>36</v>
@@ -5412,10 +5661,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C14">
         <v>36</v>
@@ -5438,10 +5687,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C15">
         <v>36</v>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="퍼블리싱목록" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="158">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1243,9 +1243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1279,7 +1279,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="12" t="str">
         <f>"총완료 "&amp;COUNTA(J3:J10013)&amp;"건"</f>
-        <v>총완료 32건</v>
+        <v>총완료 41건</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="19"/>
@@ -2378,9 +2378,11 @@
         <v>104</v>
       </c>
       <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G35" s="10" t="s">
         <v>153</v>
       </c>
@@ -2390,7 +2392,9 @@
       <c r="I35" s="7">
         <v>44172</v>
       </c>
-      <c r="J35" s="6"/>
+      <c r="J35" s="7">
+        <v>44173</v>
+      </c>
       <c r="K35" s="6"/>
       <c r="L35" s="13" t="s">
         <v>152</v>
@@ -2408,17 +2412,23 @@
         <v>58</v>
       </c>
       <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G36" s="10" t="s">
         <v>153</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="I36" s="7">
+        <v>44174</v>
+      </c>
+      <c r="J36" s="7">
+        <v>44175</v>
+      </c>
       <c r="K36" s="6"/>
       <c r="L36" s="13" t="s">
         <v>152</v>
@@ -2436,17 +2446,23 @@
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G37" s="10" t="s">
         <v>153</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="I37" s="7">
+        <v>44178</v>
+      </c>
+      <c r="J37" s="7">
+        <v>44179</v>
+      </c>
       <c r="K37" s="6"/>
       <c r="L37" s="13" t="s">
         <v>152</v>
@@ -2464,17 +2480,23 @@
         <v>60</v>
       </c>
       <c r="E38" s="5">
-        <v>0</v>
-      </c>
-      <c r="F38" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G38" s="10" t="s">
         <v>153</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="I38" s="7">
+        <v>44180</v>
+      </c>
+      <c r="J38" s="7">
+        <v>44182</v>
+      </c>
       <c r="K38" s="6"/>
       <c r="L38" s="13" t="s">
         <v>152</v>
@@ -2492,17 +2514,23 @@
         <v>61</v>
       </c>
       <c r="E39" s="5">
-        <v>0</v>
-      </c>
-      <c r="F39" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G39" s="10" t="s">
         <v>153</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="I39" s="7">
+        <v>44185</v>
+      </c>
+      <c r="J39" s="7">
+        <v>44185</v>
+      </c>
       <c r="K39" s="6"/>
       <c r="L39" s="13" t="s">
         <v>152</v>
@@ -2520,17 +2548,23 @@
         <v>62</v>
       </c>
       <c r="E40" s="5">
-        <v>0</v>
-      </c>
-      <c r="F40" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G40" s="10" t="s">
         <v>153</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+      <c r="I40" s="7">
+        <v>44186</v>
+      </c>
+      <c r="J40" s="7">
+        <v>44187</v>
+      </c>
       <c r="K40" s="6"/>
       <c r="L40" s="13" t="s">
         <v>152</v>
@@ -2548,17 +2582,23 @@
         <v>63</v>
       </c>
       <c r="E41" s="5">
-        <v>0</v>
-      </c>
-      <c r="F41" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G41" s="10" t="s">
         <v>153</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="I41" s="7">
+        <v>44188</v>
+      </c>
+      <c r="J41" s="7">
+        <v>44189</v>
+      </c>
       <c r="K41" s="6"/>
       <c r="L41" s="13" t="s">
         <v>152</v>
@@ -2576,17 +2616,23 @@
         <v>64</v>
       </c>
       <c r="E42" s="5">
-        <v>0</v>
-      </c>
-      <c r="F42" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G42" s="10" t="s">
         <v>153</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="I42" s="7">
+        <v>44192</v>
+      </c>
+      <c r="J42" s="7">
+        <v>44193</v>
+      </c>
       <c r="K42" s="6"/>
       <c r="L42" s="13" t="s">
         <v>152</v>
@@ -2604,17 +2650,23 @@
         <v>65</v>
       </c>
       <c r="E43" s="5">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G43" s="10" t="s">
         <v>153</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
+      <c r="I43" s="7">
+        <v>44194</v>
+      </c>
+      <c r="J43" s="7">
+        <v>44195</v>
+      </c>
       <c r="K43" s="6"/>
       <c r="L43" s="13" t="s">
         <v>152</v>
@@ -2632,9 +2684,11 @@
         <v>66</v>
       </c>
       <c r="E44" s="5">
-        <v>0</v>
-      </c>
-      <c r="F44" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G44" s="10" t="s">
         <v>153</v>
       </c>
@@ -2660,9 +2714,11 @@
         <v>67</v>
       </c>
       <c r="E45" s="5">
-        <v>0</v>
-      </c>
-      <c r="F45" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G45" s="10" t="s">
         <v>153</v>
       </c>
@@ -2688,9 +2744,11 @@
         <v>156</v>
       </c>
       <c r="E46" s="5">
-        <v>0</v>
-      </c>
-      <c r="F46" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G46" s="10" t="s">
         <v>153</v>
       </c>
@@ -2716,9 +2774,11 @@
         <v>157</v>
       </c>
       <c r="E47" s="5">
-        <v>0</v>
-      </c>
-      <c r="F47" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G47" s="10" t="s">
         <v>153</v>
       </c>
@@ -2744,9 +2804,11 @@
         <v>68</v>
       </c>
       <c r="E48" s="5">
-        <v>0</v>
-      </c>
-      <c r="F48" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G48" s="10" t="s">
         <v>153</v>
       </c>
@@ -2772,9 +2834,11 @@
         <v>69</v>
       </c>
       <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G49" s="10" t="s">
         <v>153</v>
       </c>
@@ -2800,9 +2864,11 @@
         <v>70</v>
       </c>
       <c r="E50" s="5">
-        <v>0</v>
-      </c>
-      <c r="F50" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G50" s="10" t="s">
         <v>153</v>
       </c>
@@ -2828,9 +2894,11 @@
         <v>71</v>
       </c>
       <c r="E51" s="5">
-        <v>0</v>
-      </c>
-      <c r="F51" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G51" s="10" t="s">
         <v>153</v>
       </c>
@@ -3729,8 +3797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="퍼블리싱목록" sheetId="3" r:id="rId1"/>
@@ -589,10 +589,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>grid view - type2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시작일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -626,6 +622,10 @@
   </si>
   <si>
     <t>P10-2_Main_AllMenu_type2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid view - type2 - fullsize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -847,7 +847,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,7 +911,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,9 +1243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1307,10 +1307,10 @@
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>9</v>
@@ -1319,7 +1319,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N2" s="19"/>
     </row>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>55</v>
@@ -2384,7 +2384,7 @@
         <v>14</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>16</v>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M35" s="4"/>
     </row>
@@ -2418,7 +2418,7 @@
         <v>14</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>16</v>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M36" s="4"/>
     </row>
@@ -2452,7 +2452,7 @@
         <v>14</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>16</v>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M37" s="4"/>
     </row>
@@ -2486,7 +2486,7 @@
         <v>14</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>16</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M38" s="4"/>
     </row>
@@ -2520,7 +2520,7 @@
         <v>14</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>16</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M39" s="4"/>
     </row>
@@ -2554,7 +2554,7 @@
         <v>14</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>16</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M40" s="4"/>
     </row>
@@ -2588,7 +2588,7 @@
         <v>14</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>16</v>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M41" s="4"/>
     </row>
@@ -2622,7 +2622,7 @@
         <v>14</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>16</v>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M42" s="4"/>
     </row>
@@ -2656,7 +2656,7 @@
         <v>14</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>16</v>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M43" s="4"/>
     </row>
@@ -2690,7 +2690,7 @@
         <v>14</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>16</v>
@@ -2699,7 +2699,7 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M44" s="4"/>
     </row>
@@ -2720,7 +2720,7 @@
         <v>14</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>16</v>
@@ -2729,19 +2729,19 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E46" s="5">
         <v>1</v>
@@ -2750,7 +2750,7 @@
         <v>14</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>16</v>
@@ -2759,19 +2759,19 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E47" s="5">
         <v>1</v>
@@ -2780,7 +2780,7 @@
         <v>14</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>16</v>
@@ -2789,7 +2789,7 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M47" s="4"/>
     </row>
@@ -2810,7 +2810,7 @@
         <v>14</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>16</v>
@@ -2819,7 +2819,7 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M48" s="4"/>
     </row>
@@ -2840,7 +2840,7 @@
         <v>14</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>16</v>
@@ -2849,7 +2849,7 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M49" s="4"/>
     </row>
@@ -2870,7 +2870,7 @@
         <v>14</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>16</v>
@@ -2879,7 +2879,7 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M50" s="4"/>
     </row>
@@ -2900,7 +2900,7 @@
         <v>14</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>16</v>
@@ -2909,7 +2909,7 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M51" s="4"/>
     </row>
@@ -3797,7 +3797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -4259,13 +4259,13 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -4285,13 +4285,13 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">퍼블리싱목록!$B$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">퍼블리싱목록!$B$2:$N$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="161">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,320 +312,332 @@
     <t>F02-1_BottomNavigation</t>
   </si>
   <si>
+    <t>F05-1_PopupAlert</t>
+  </si>
+  <si>
+    <t>F06-1_BottomSheet</t>
+  </si>
+  <si>
+    <t>F07-1_ToastMessage</t>
+  </si>
+  <si>
+    <t>F04-1_PopupFull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C01-1_Buttons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C02-1_ToggleSwich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C03-1_InputForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C04-1_SildeBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C05-1_MessageBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C06-1_TabControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C07-1_Icons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C08-1_DarkMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템설정파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임구성항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/.settings/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/websquare/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/css/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/fonts/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/js/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>websquare.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>websquare.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noto-sans-kr.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noto Sans KR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swiper.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swiper.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P01-1_Main_ToDo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic - main frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic - sub frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic - popup frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C09-1_BasicMainFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C09-2_BasicSubFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C09-3_BasicPopupFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹스퀘어스튜디오설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 프로젝트추가 및 경로설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 doctype, viewport 속성 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark모드 컬러값 변수처리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본고딕폰트css작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본고딕웹폰트파일변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐러셀 라이브러리 css작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐러셀 라이브러리 커스터마이징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹스퀘어 라이선스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인화면 웹?앱? 하이브리드앱? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">디바이스UI 세로사이즈에 포함, 불포함 </t>
+  </si>
+  <si>
+    <t>font-stretch(장평) 웹폰트 적용불가</t>
+  </si>
+  <si>
+    <t>핸드폰 모델별 아이폰하단메뉴 높이</t>
+  </si>
+  <si>
+    <t>필터항목 component는 어떤걸로? 현재는 체크박스</t>
+  </si>
+  <si>
+    <t>날짜입력폼 native로 하는건 어떨지</t>
+  </si>
+  <si>
+    <t>체크박스 체크된 이미지 필요 계속버튼 활성이미지 필요</t>
+  </si>
+  <si>
+    <t>레이아웃 다시 잡기 flex direction column</t>
+  </si>
+  <si>
+    <t>화면분할 4분할</t>
+  </si>
+  <si>
+    <t>dark모드</t>
+  </si>
+  <si>
+    <t>캘린더 2종 그냥캘린더 스케줄캘린더</t>
+  </si>
+  <si>
+    <t>알림 push 화면</t>
+  </si>
+  <si>
+    <t>figma : sang1009@naver.com // 0504tkdwns!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule calendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C09-2-1_BasicSubFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic - sub frame - whitebg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C99-1_ScheduleCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10-1_GridView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C11-1_TableLayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할부중</t>
+  </si>
+  <si>
+    <t>할부완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2097-64</t>
+  </si>
+  <si>
+    <t>grid view - type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10-2_GridView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainPage,가입정보조회,공통영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥화면 - 전체메뉴 - type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥화면 - 전체메뉴 - type2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P10-1_Main_AllMenu_type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P10-2_Main_AllMenu_type2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid view - type2 - fullsize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 css파일 설정(reset, layout)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶</t>
+  </si>
+  <si>
+    <t>▶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>F03-1_Drawer</t>
-  </si>
-  <si>
-    <t>F05-1_PopupAlert</t>
-  </si>
-  <si>
-    <t>F06-1_BottomSheet</t>
-  </si>
-  <si>
-    <t>F07-1_ToastMessage</t>
-  </si>
-  <si>
-    <t>F04-1_PopupFull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C01-1_Buttons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C02-1_ToggleSwich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C03-1_InputForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C04-1_SildeBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C05-1_MessageBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C06-1_TabControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C07-1_Icons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C08-1_DarkMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템설정파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프레임구성항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>local</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/.settings/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/websquare/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/css/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/fonts/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/js/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>websquare.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>config.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>websquare.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all.css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noto-sans-kr.css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Noto Sans KR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swiper.css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swiper.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P01-1_Main_ToDo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic - main frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic - sub frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic - popup frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C09-1_BasicMainFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C09-2_BasicSubFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C09-3_BasicPopupFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹스퀘어스튜디오설치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임시 프로젝트추가 및 경로설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일 doctype, viewport 속성 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일 css파일 설정(reset, lyout)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark모드 컬러값 변수처리 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본고딕폰트css작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본고딕웹폰트파일변환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐러셀 라이브러리 css작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐러셀 라이브러리 커스터마이징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹스퀘어 라이선스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">로그인화면 웹?앱? 하이브리드앱? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">디바이스UI 세로사이즈에 포함, 불포함 </t>
-  </si>
-  <si>
-    <t>font-stretch(장평) 웹폰트 적용불가</t>
-  </si>
-  <si>
-    <t>핸드폰 모델별 아이폰하단메뉴 높이</t>
-  </si>
-  <si>
-    <t>필터항목 component는 어떤걸로? 현재는 체크박스</t>
-  </si>
-  <si>
-    <t>날짜입력폼 native로 하는건 어떨지</t>
-  </si>
-  <si>
-    <t>체크박스 체크된 이미지 필요 계속버튼 활성이미지 필요</t>
-  </si>
-  <si>
-    <t>레이아웃 다시 잡기 flex direction column</t>
-  </si>
-  <si>
-    <t>화면분할 4분할</t>
-  </si>
-  <si>
-    <t>dark모드</t>
-  </si>
-  <si>
-    <t>캘린더 2종 그냥캘린더 스케줄캘린더</t>
-  </si>
-  <si>
-    <t>알림 push 화면</t>
-  </si>
-  <si>
-    <t>figma : sang1009@naver.com // 0504tkdwns!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buttons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schedule calendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C09-2-1_BasicSubFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic - sub frame - whitebg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C99-1_ScheduleCalendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10-1_GridView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C11-1_TableLayout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할부중</t>
-  </si>
-  <si>
-    <t>할부완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2097-64</t>
-  </si>
-  <si>
-    <t>grid view - type1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10-2_GridView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JIRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainPage,가입정보조회,공통영역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prototype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바닥화면 - 전체메뉴 - type1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바닥화면 - 전체메뉴 - type2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P10-1_Main_AllMenu_type1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P10-2_Main_AllMenu_type2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grid view - type2 - fullsize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,6 +692,33 @@
       <color theme="9" tint="-0.499984740745262"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -743,12 +782,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,22 +818,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -809,9 +839,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -830,13 +879,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1241,11 +1290,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N113"/>
+  <dimension ref="B1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1255,36 +1304,38 @@
     <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="11" customWidth="1"/>
-    <col min="9" max="11" width="11.5" style="11" customWidth="1"/>
-    <col min="12" max="12" width="30.625" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="7.625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="17" customWidth="1"/>
+    <col min="10" max="12" width="11.5" style="17" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="21" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="str">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="18" t="str">
         <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B10013)&amp;"건"</f>
         <v>퍼블리싱업무 총물량 49건</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="12" t="str">
-        <f>"총완료 "&amp;COUNTA(J3:J10013)&amp;"건"</f>
-        <v>총완료 41건</v>
-      </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="19"/>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="20" t="str">
+        <f>"총완료 "&amp;COUNTA(K3:K10013)&amp;"건"</f>
+        <v>총완료 31건</v>
+      </c>
+      <c r="N1" s="18"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1301,29 +1352,32 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1339,33 +1393,34 @@
       <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7">
-        <v>44136</v>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J3" s="7">
         <v>44136</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="13" t="s">
+      <c r="K3" s="7">
+        <v>44136</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1373,33 +1428,34 @@
       <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7">
-        <v>44136</v>
+        <v>86</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="7">
         <v>44136</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K4" s="7">
+        <v>44136</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1407,33 +1463,34 @@
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7">
-        <v>44137</v>
+        <v>86</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J5" s="7">
         <v>44137</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K5" s="7">
+        <v>44137</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1441,33 +1498,34 @@
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7">
-        <v>44137</v>
+        <v>86</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J6" s="7">
         <v>44137</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K6" s="7">
+        <v>44137</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1475,33 +1533,34 @@
       <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="7">
-        <v>44138</v>
+        <v>87</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J7" s="7">
         <v>44138</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K7" s="7">
+        <v>44138</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1509,33 +1568,34 @@
       <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="7">
-        <v>44138</v>
+        <v>87</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J8" s="7">
         <v>44138</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K8" s="7">
+        <v>44138</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1543,33 +1603,34 @@
       <c r="F9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="7">
-        <v>44139</v>
+        <v>87</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J9" s="7">
         <v>44139</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K9" s="7">
+        <v>44139</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1577,33 +1638,34 @@
       <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="7">
-        <v>44139</v>
+        <v>87</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J10" s="7">
         <v>44139</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K10" s="7">
+        <v>44139</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1611,33 +1673,34 @@
       <c r="F11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="7">
-        <v>44140</v>
+        <v>87</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J11" s="7">
         <v>44140</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K11" s="7">
+        <v>44140</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1645,25 +1708,26 @@
       <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="7">
-        <v>44140</v>
+        <v>87</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J12" s="7">
         <v>44140</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K12" s="7">
+        <v>44140</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1679,23 +1743,26 @@
       <c r="F13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>89</v>
+      <c r="G13" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="7">
-        <v>44143</v>
+        <v>88</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J13" s="7">
         <v>44143</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K13" s="7">
+        <v>44143</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
@@ -1711,23 +1778,26 @@
       <c r="F14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>89</v>
+      <c r="G14" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="7">
-        <v>44144</v>
+        <v>88</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J14" s="7">
         <v>44144</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K14" s="7">
+        <v>44144</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
@@ -1735,7 +1805,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1743,23 +1813,26 @@
       <c r="F15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>89</v>
+      <c r="G15" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="7">
-        <v>44145</v>
+        <v>88</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J15" s="7">
         <v>44145</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K15" s="7">
+        <v>44145</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
@@ -1767,7 +1840,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1775,23 +1848,26 @@
       <c r="F16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>89</v>
+      <c r="G16" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="7">
-        <v>44146</v>
+        <v>88</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J16" s="7">
         <v>44146</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K16" s="7">
+        <v>44146</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
@@ -1799,7 +1875,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1807,23 +1883,26 @@
       <c r="F17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>89</v>
+      <c r="G17" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="7">
-        <v>44147</v>
+        <v>88</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J17" s="7">
         <v>44147</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K17" s="7">
+        <v>44147</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
@@ -1831,7 +1910,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1839,23 +1918,26 @@
       <c r="F18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>89</v>
+      <c r="G18" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="7">
-        <v>44150</v>
+        <v>88</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J18" s="7">
         <v>44150</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K18" s="7">
+        <v>44150</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
@@ -1863,7 +1945,7 @@
         <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1871,31 +1953,34 @@
       <c r="F19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>89</v>
+      <c r="G19" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="7">
-        <v>44151</v>
+        <v>88</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J19" s="7">
         <v>44151</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K19" s="7">
+        <v>44151</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1903,23 +1988,26 @@
       <c r="F20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>134</v>
+      <c r="G20" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="7">
-        <v>44152</v>
+        <v>132</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J20" s="7">
         <v>44152</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K20" s="7">
+        <v>44152</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
@@ -1927,7 +2015,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -1935,23 +2023,26 @@
       <c r="F21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>134</v>
+      <c r="G21" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="7">
-        <v>44153</v>
+        <v>132</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J21" s="7">
         <v>44153</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K21" s="7">
+        <v>44153</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1959,7 +2050,7 @@
         <v>55</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -1967,23 +2058,26 @@
       <c r="F22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>134</v>
+      <c r="G22" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="7">
-        <v>44154</v>
+        <v>132</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J22" s="7">
         <v>44154</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K22" s="7">
+        <v>44154</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
@@ -1991,7 +2085,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -1999,23 +2093,26 @@
       <c r="F23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>134</v>
+      <c r="G23" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="7">
-        <v>44157</v>
+        <v>132</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J23" s="7">
         <v>44157</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K23" s="7">
+        <v>44157</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>36</v>
       </c>
@@ -2023,7 +2120,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -2031,23 +2128,26 @@
       <c r="F24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>134</v>
+      <c r="G24" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="7">
-        <v>44158</v>
+        <v>132</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J24" s="7">
         <v>44158</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K24" s="7">
+        <v>44158</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>37</v>
       </c>
@@ -2055,7 +2155,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -2063,23 +2163,26 @@
       <c r="F25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>134</v>
+      <c r="G25" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="7">
-        <v>44159</v>
+        <v>132</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J25" s="7">
         <v>44159</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K25" s="7">
+        <v>44159</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>38</v>
       </c>
@@ -2087,7 +2190,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -2095,23 +2198,26 @@
       <c r="F26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>134</v>
+      <c r="G26" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="7">
-        <v>44160</v>
+        <v>132</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J26" s="7">
         <v>44160</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K26" s="7">
+        <v>44160</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>39</v>
       </c>
@@ -2119,7 +2225,7 @@
         <v>55</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -2127,31 +2233,34 @@
       <c r="F27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>134</v>
+      <c r="G27" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="7">
-        <v>44161</v>
+        <v>132</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J27" s="7">
         <v>44161</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K27" s="7">
+        <v>44161</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -2159,31 +2268,34 @@
       <c r="F28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>134</v>
+      <c r="G28" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="7">
-        <v>44164</v>
+        <v>132</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J28" s="7">
         <v>44164</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K28" s="7">
+        <v>44164</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
@@ -2191,31 +2303,34 @@
       <c r="F29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>134</v>
+      <c r="G29" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="7">
-        <v>44165</v>
+        <v>132</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J29" s="7">
         <v>44165</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K29" s="7">
+        <v>44165</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -2223,31 +2338,34 @@
       <c r="F30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>134</v>
+      <c r="G30" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="7">
-        <v>44165</v>
+        <v>132</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J30" s="7">
         <v>44165</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K30" s="7">
+        <v>44165</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -2255,31 +2373,34 @@
       <c r="F31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>134</v>
+      <c r="G31" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="7">
-        <v>44166</v>
+        <v>132</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J31" s="7">
         <v>44166</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K31" s="7">
+        <v>44166</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -2287,31 +2408,34 @@
       <c r="F32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>134</v>
+      <c r="G32" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="7">
-        <v>44167</v>
+        <v>132</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J32" s="7">
         <v>44167</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K32" s="7">
+        <v>44167</v>
+      </c>
+      <c r="L32" s="6"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -2319,55 +2443,57 @@
       <c r="F33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>134</v>
+      <c r="G33" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="7">
-        <v>44168</v>
+        <v>132</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J33" s="7">
         <v>44168</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K33" s="7">
+        <v>44168</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E34" s="5">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>134</v>
+        <v>0</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="7">
-        <v>44171</v>
+        <v>132</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J34" s="7">
         <v>44171</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K34" s="7"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>40</v>
       </c>
@@ -2375,33 +2501,32 @@
         <v>55</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="5">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="7">
         <v>44172</v>
       </c>
-      <c r="J35" s="7">
-        <v>44173</v>
-      </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K35" s="7"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>41</v>
       </c>
@@ -2412,30 +2537,29 @@
         <v>58</v>
       </c>
       <c r="E36" s="5">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="7">
         <v>44174</v>
       </c>
-      <c r="J36" s="7">
-        <v>44175</v>
-      </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K36" s="7"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>42</v>
       </c>
@@ -2446,30 +2570,27 @@
         <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>1</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="7">
-        <v>44178</v>
-      </c>
-      <c r="J37" s="7">
-        <v>44179</v>
-      </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>43</v>
       </c>
@@ -2480,30 +2601,27 @@
         <v>60</v>
       </c>
       <c r="E38" s="5">
-        <v>1</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="7">
-        <v>44180</v>
-      </c>
-      <c r="J38" s="7">
-        <v>44182</v>
-      </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>44</v>
       </c>
@@ -2514,30 +2632,27 @@
         <v>61</v>
       </c>
       <c r="E39" s="5">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="7">
-        <v>44185</v>
-      </c>
-      <c r="J39" s="7">
-        <v>44185</v>
-      </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>45</v>
       </c>
@@ -2548,30 +2663,27 @@
         <v>62</v>
       </c>
       <c r="E40" s="5">
-        <v>1</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="7">
-        <v>44186</v>
-      </c>
-      <c r="J40" s="7">
-        <v>44187</v>
-      </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>46</v>
       </c>
@@ -2582,30 +2694,27 @@
         <v>63</v>
       </c>
       <c r="E41" s="5">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="7">
-        <v>44188</v>
-      </c>
-      <c r="J41" s="7">
-        <v>44189</v>
-      </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>47</v>
       </c>
@@ -2616,30 +2725,27 @@
         <v>64</v>
       </c>
       <c r="E42" s="5">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="7">
-        <v>44192</v>
-      </c>
-      <c r="J42" s="7">
-        <v>44193</v>
-      </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>48</v>
       </c>
@@ -2650,30 +2756,27 @@
         <v>65</v>
       </c>
       <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="7">
-        <v>44194</v>
-      </c>
-      <c r="J43" s="7">
-        <v>44195</v>
-      </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>49</v>
       </c>
@@ -2684,26 +2787,27 @@
         <v>66</v>
       </c>
       <c r="E44" s="5">
-        <v>1</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L44" s="6"/>
+      <c r="M44" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>50</v>
       </c>
@@ -2714,86 +2818,89 @@
         <v>67</v>
       </c>
       <c r="E45" s="5">
-        <v>1</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="13" t="s">
+      <c r="L45" s="6"/>
+      <c r="M45" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E46" s="5">
-        <v>1</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L46" s="6"/>
+      <c r="M46" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E47" s="5">
-        <v>1</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L47" s="6"/>
+      <c r="M47" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>51</v>
       </c>
@@ -2804,26 +2911,27 @@
         <v>68</v>
       </c>
       <c r="E48" s="5">
-        <v>1</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L48" s="6"/>
+      <c r="M48" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>52</v>
       </c>
@@ -2834,26 +2942,27 @@
         <v>69</v>
       </c>
       <c r="E49" s="5">
-        <v>1</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L49" s="6"/>
+      <c r="M49" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>53</v>
       </c>
@@ -2864,26 +2973,27 @@
         <v>70</v>
       </c>
       <c r="E50" s="5">
-        <v>1</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L50" s="6"/>
+      <c r="M50" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>54</v>
       </c>
@@ -2894,26 +3004,27 @@
         <v>71</v>
       </c>
       <c r="E51" s="5">
-        <v>1</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L51" s="6"/>
+      <c r="M51" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -2924,10 +3035,11 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L52" s="6"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -2938,10 +3050,11 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L53" s="6"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2952,10 +3065,11 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L54" s="6"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -2966,10 +3080,11 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L55" s="6"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -2980,10 +3095,11 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L56" s="6"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2994,10 +3110,11 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L57" s="6"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -3008,10 +3125,11 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L58" s="6"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -3022,10 +3140,11 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L59" s="6"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -3036,10 +3155,11 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L60" s="6"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -3050,10 +3170,11 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L61" s="6"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -3064,10 +3185,11 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L62" s="6"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -3078,10 +3200,11 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="4"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L63" s="6"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -3092,10 +3215,11 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="4"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L64" s="6"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -3106,10 +3230,11 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="4"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L65" s="6"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -3120,10 +3245,11 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L66" s="6"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -3134,10 +3260,11 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L67" s="6"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -3148,10 +3275,11 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="4"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L68" s="6"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -3162,10 +3290,11 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L69" s="6"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -3176,10 +3305,11 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="4"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L70" s="6"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -3190,10 +3320,11 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="4"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L71" s="6"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -3204,10 +3335,11 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="4"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L72" s="6"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -3218,10 +3350,11 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="4"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L73" s="6"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -3232,10 +3365,11 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="4"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L74" s="6"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -3246,10 +3380,11 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="4"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L75" s="6"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3260,10 +3395,11 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="4"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L76" s="6"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -3274,10 +3410,11 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="4"/>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L77" s="6"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3288,10 +3425,11 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="4"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L78" s="6"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -3302,10 +3440,11 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="4"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L79" s="6"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -3316,10 +3455,11 @@
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="4"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L80" s="6"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3330,10 +3470,11 @@
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="4"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L81" s="6"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -3344,10 +3485,11 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="4"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L82" s="6"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3358,10 +3500,11 @@
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="4"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L83" s="6"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3372,10 +3515,11 @@
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="4"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L84" s="6"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3386,10 +3530,11 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="4"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L85" s="6"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -3400,10 +3545,11 @@
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="4"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L86" s="6"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="4"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -3414,10 +3560,11 @@
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="4"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L87" s="6"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -3428,10 +3575,11 @@
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="4"/>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L88" s="6"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -3442,10 +3590,11 @@
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="4"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L89" s="6"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -3456,10 +3605,11 @@
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="4"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L90" s="6"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -3470,10 +3620,11 @@
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="4"/>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L91" s="6"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -3484,10 +3635,11 @@
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="4"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L92" s="6"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -3498,10 +3650,11 @@
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="4"/>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L93" s="6"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -3512,10 +3665,11 @@
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="4"/>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L94" s="6"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -3526,10 +3680,11 @@
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="4"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L95" s="6"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -3540,10 +3695,11 @@
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
-      <c r="L96" s="13"/>
-      <c r="M96" s="4"/>
-    </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L96" s="6"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="4"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -3554,10 +3710,11 @@
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="4"/>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L97" s="6"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -3568,10 +3725,11 @@
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="4"/>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L98" s="6"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="4"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -3582,10 +3740,11 @@
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="4"/>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L99" s="6"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -3596,10 +3755,11 @@
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
-      <c r="L100" s="13"/>
-      <c r="M100" s="4"/>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L100" s="6"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -3610,10 +3770,11 @@
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="4"/>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L101" s="6"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="4"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -3624,10 +3785,11 @@
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="4"/>
-    </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L102" s="6"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="4"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -3638,10 +3800,11 @@
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="4"/>
-    </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L103" s="6"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -3652,10 +3815,11 @@
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="4"/>
-    </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L104" s="6"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="4"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -3666,10 +3830,11 @@
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
-      <c r="L105" s="13"/>
-      <c r="M105" s="4"/>
-    </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L105" s="6"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="4"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -3680,10 +3845,11 @@
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="4"/>
-    </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L106" s="6"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="4"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -3694,10 +3860,11 @@
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="4"/>
-    </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L107" s="6"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="4"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -3708,10 +3875,11 @@
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="4"/>
-    </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L108" s="6"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="4"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -3722,10 +3890,11 @@
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
-      <c r="L109" s="13"/>
-      <c r="M109" s="4"/>
-    </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L109" s="6"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="4"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -3736,10 +3905,11 @@
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="4"/>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L110" s="6"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="4"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -3750,10 +3920,11 @@
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
-      <c r="L111" s="13"/>
-      <c r="M111" s="4"/>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L111" s="6"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="4"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -3764,10 +3935,11 @@
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="4"/>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L112" s="6"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="4"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -3778,18 +3950,60 @@
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
-      <c r="L113" s="13"/>
-      <c r="M113" s="4"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:M2"/>
+  <autoFilter ref="B2:N2"/>
   <mergeCells count="1">
-    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G13" r:id="rId1"/>
+    <hyperlink ref="G14" r:id="rId2"/>
+    <hyperlink ref="G15" r:id="rId3"/>
+    <hyperlink ref="G16" r:id="rId4"/>
+    <hyperlink ref="G17" r:id="rId5"/>
+    <hyperlink ref="G18" r:id="rId6"/>
+    <hyperlink ref="G19" r:id="rId7"/>
+    <hyperlink ref="G20" r:id="rId8"/>
+    <hyperlink ref="G21" r:id="rId9"/>
+    <hyperlink ref="G22" r:id="rId10"/>
+    <hyperlink ref="G23" r:id="rId11"/>
+    <hyperlink ref="G24" r:id="rId12"/>
+    <hyperlink ref="G25" r:id="rId13"/>
+    <hyperlink ref="G26" r:id="rId14"/>
+    <hyperlink ref="G27" r:id="rId15"/>
+    <hyperlink ref="G28" r:id="rId16"/>
+    <hyperlink ref="G29" r:id="rId17"/>
+    <hyperlink ref="G30" r:id="rId18"/>
+    <hyperlink ref="G31" r:id="rId19"/>
+    <hyperlink ref="G32" r:id="rId20"/>
+    <hyperlink ref="G33" r:id="rId21"/>
+    <hyperlink ref="G34" r:id="rId22"/>
+    <hyperlink ref="G35" r:id="rId23"/>
+    <hyperlink ref="G36" r:id="rId24"/>
+    <hyperlink ref="G37" r:id="rId25"/>
+    <hyperlink ref="G38" r:id="rId26"/>
+    <hyperlink ref="G39" r:id="rId27"/>
+    <hyperlink ref="G40" r:id="rId28"/>
+    <hyperlink ref="G41" r:id="rId29"/>
+    <hyperlink ref="G42" r:id="rId30"/>
+    <hyperlink ref="G43" r:id="rId31"/>
+    <hyperlink ref="G44" r:id="rId32"/>
+    <hyperlink ref="G45" r:id="rId33"/>
+    <hyperlink ref="G46" r:id="rId34"/>
+    <hyperlink ref="G47" r:id="rId35"/>
+    <hyperlink ref="G48" r:id="rId36"/>
+    <hyperlink ref="G49" r:id="rId37"/>
+    <hyperlink ref="G50" r:id="rId38"/>
+    <hyperlink ref="G51" r:id="rId39"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId40"/>
+  <drawing r:id="rId41"/>
 </worksheet>
 </file>
 
@@ -3834,7 +4048,7 @@
         <v>총완료 0건</v>
       </c>
       <c r="M1" s="8"/>
-      <c r="N1" s="19"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -3871,7 +4085,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="19"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -3979,13 +4193,13 @@
         <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>56</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -4011,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>56</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -4037,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>56</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -4063,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>56</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -4089,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>56</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -4167,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>56</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -4193,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>56</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -4219,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>56</v>
       </c>
       <c r="H19" s="6" t="s">
@@ -4245,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>56</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -4259,19 +4473,19 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>56</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -4285,19 +4499,19 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>56</v>
       </c>
       <c r="H22" s="6" t="s">
@@ -4456,23 +4670,23 @@
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" s="16">
+      <c r="D30" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="12">
         <v>0</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="17" t="s">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I30" s="4"/>
@@ -5304,72 +5518,72 @@
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5391,391 +5605,391 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
         <v>143</v>
-      </c>
-      <c r="B1" t="s">
-        <v>145</v>
       </c>
       <c r="C1">
         <v>36</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="14">
         <v>819400</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="14">
         <v>907484</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="14">
         <v>17690</v>
       </c>
       <c r="G1">
         <v>14</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1" s="14">
         <v>472918</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
         <v>143</v>
-      </c>
-      <c r="B2" t="s">
-        <v>145</v>
       </c>
       <c r="C2">
         <v>36</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="14">
         <v>819400</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="14">
         <v>907484</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="14">
         <v>17690</v>
       </c>
       <c r="G2">
         <v>14</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="14">
         <v>472918</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
         <v>143</v>
-      </c>
-      <c r="B3" t="s">
-        <v>145</v>
       </c>
       <c r="C3">
         <v>36</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="14">
         <v>819400</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <v>907484</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="14">
         <v>17690</v>
       </c>
       <c r="G3">
         <v>14</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="14">
         <v>472918</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
         <v>143</v>
-      </c>
-      <c r="B4" t="s">
-        <v>145</v>
       </c>
       <c r="C4">
         <v>36</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>819400</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>907484</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <v>17690</v>
       </c>
       <c r="G4">
         <v>14</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="14">
         <v>472918</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
         <v>143</v>
-      </c>
-      <c r="B5" t="s">
-        <v>145</v>
       </c>
       <c r="C5">
         <v>36</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>819400</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>907484</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="14">
         <v>17690</v>
       </c>
       <c r="G5">
         <v>14</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="14">
         <v>472918</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s">
         <v>143</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
       </c>
       <c r="C6">
         <v>36</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>819400</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <v>907484</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="14">
         <v>17690</v>
       </c>
       <c r="G6">
         <v>14</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="14">
         <v>472918</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7">
         <v>36</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="14">
         <v>819400</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <v>907484</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="14">
         <v>17690</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8">
         <v>36</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="14">
         <v>819400</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="14">
         <v>907484</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="14">
         <v>17690</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9">
         <v>36</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="14">
         <v>819400</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="14">
         <v>907484</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="14">
         <v>17690</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10">
         <v>36</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="14">
         <v>819400</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="14">
         <v>907484</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="14">
         <v>17690</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11">
         <v>36</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="14">
         <v>819400</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="14">
         <v>907484</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="14">
         <v>17690</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12">
         <v>36</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="14">
         <v>819400</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="14">
         <v>907484</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="14">
         <v>17690</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13">
         <v>36</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="14">
         <v>819400</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="14">
         <v>907484</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="14">
         <v>17690</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C14">
         <v>36</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="14">
         <v>819400</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="14">
         <v>907484</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="14">
         <v>17690</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C15">
         <v>36</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="14">
         <v>819400</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="14">
         <v>907484</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="14">
         <v>17690</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="14">
         <v>0</v>
       </c>
     </row>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">퍼블리싱목록!$B$2:$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">퍼블리싱목록!$B$2:$M$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="162">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -638,6 +638,10 @@
   </si>
   <si>
     <t>F03-1_Drawer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P03-1_Main_CustomerSearchResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,6 +749,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,7 +806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,6 +873,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -879,13 +907,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1290,11 +1318,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O113"/>
+  <dimension ref="B1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1308,12 +1336,12 @@
     <col min="7" max="7" width="5.125" style="17" customWidth="1"/>
     <col min="8" max="8" width="13.625" style="17" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="17" customWidth="1"/>
-    <col min="10" max="12" width="11.5" style="17" customWidth="1"/>
-    <col min="13" max="13" width="30.625" style="21" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="10" max="11" width="11.5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="30.625" style="21" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="18" t="str">
         <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B10013)&amp;"건"</f>
         <v>퍼블리싱업무 총물량 49건</v>
@@ -1327,15 +1355,14 @@
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20" t="str">
+      <c r="L1" s="20" t="str">
         <f>"총완료 "&amp;COUNTA(K3:K10013)&amp;"건"</f>
-        <v>총완료 31건</v>
-      </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+        <v>총완료 33건</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1367,17 +1394,14 @@
         <v>147</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1400,19 +1424,18 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="22">
         <v>44136</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="24">
         <v>44136</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1441,13 +1464,12 @@
       <c r="K4" s="7">
         <v>44136</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1476,13 +1498,12 @@
       <c r="K5" s="7">
         <v>44137</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
@@ -1511,13 +1532,12 @@
       <c r="K6" s="7">
         <v>44137</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1546,13 +1566,12 @@
       <c r="K7" s="7">
         <v>44138</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1581,13 +1600,12 @@
       <c r="K8" s="7">
         <v>44138</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1616,13 +1634,12 @@
       <c r="K9" s="7">
         <v>44139</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="10" t="s">
+      <c r="L9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1651,13 +1668,12 @@
       <c r="K10" s="7">
         <v>44139</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1686,13 +1702,12 @@
       <c r="K11" s="7">
         <v>44140</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1721,13 +1736,12 @@
       <c r="K12" s="7">
         <v>44140</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="10" t="s">
+      <c r="L12" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1758,11 +1772,10 @@
       <c r="K13" s="7">
         <v>44143</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L13" s="10"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
@@ -1793,11 +1806,10 @@
       <c r="K14" s="7">
         <v>44144</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L14" s="10"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
@@ -1828,11 +1840,10 @@
       <c r="K15" s="7">
         <v>44145</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L15" s="10"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
@@ -1863,11 +1874,10 @@
       <c r="K16" s="7">
         <v>44146</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L16" s="10"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
@@ -1898,11 +1908,10 @@
       <c r="K17" s="7">
         <v>44147</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L17" s="10"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
@@ -1933,11 +1942,10 @@
       <c r="K18" s="7">
         <v>44150</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L18" s="10"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
@@ -1968,11 +1976,10 @@
       <c r="K19" s="7">
         <v>44151</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L19" s="10"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>133</v>
       </c>
@@ -2003,11 +2010,10 @@
       <c r="K20" s="7">
         <v>44152</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L20" s="10"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
@@ -2038,11 +2044,10 @@
       <c r="K21" s="7">
         <v>44153</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L21" s="10"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
@@ -2073,11 +2078,10 @@
       <c r="K22" s="7">
         <v>44154</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L22" s="10"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
@@ -2108,11 +2112,10 @@
       <c r="K23" s="7">
         <v>44157</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L23" s="10"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>36</v>
       </c>
@@ -2143,11 +2146,10 @@
       <c r="K24" s="7">
         <v>44158</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L24" s="10"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>37</v>
       </c>
@@ -2178,11 +2180,10 @@
       <c r="K25" s="7">
         <v>44159</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L25" s="10"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>38</v>
       </c>
@@ -2213,11 +2214,10 @@
       <c r="K26" s="7">
         <v>44160</v>
       </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L26" s="10"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>39</v>
       </c>
@@ -2248,11 +2248,10 @@
       <c r="K27" s="7">
         <v>44161</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L27" s="10"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>104</v>
       </c>
@@ -2283,11 +2282,10 @@
       <c r="K28" s="7">
         <v>44164</v>
       </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L28" s="10"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>105</v>
       </c>
@@ -2318,11 +2316,10 @@
       <c r="K29" s="7">
         <v>44165</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L29" s="10"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>136</v>
       </c>
@@ -2353,11 +2350,10 @@
       <c r="K30" s="7">
         <v>44165</v>
       </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L30" s="10"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>106</v>
       </c>
@@ -2382,17 +2378,16 @@
       <c r="I31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="22">
         <v>44166</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="24">
         <v>44166</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L31" s="10"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>144</v>
       </c>
@@ -2423,11 +2418,10 @@
       <c r="K32" s="7">
         <v>44167</v>
       </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L32" s="10"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>155</v>
       </c>
@@ -2455,14 +2449,13 @@
       <c r="J33" s="7">
         <v>44168</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="23">
         <v>44168</v>
       </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L33" s="10"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>137</v>
       </c>
@@ -2489,11 +2482,10 @@
         <v>44171</v>
       </c>
       <c r="K34" s="7"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L34" s="10"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>40</v>
       </c>
@@ -2519,14 +2511,15 @@
       <c r="J35" s="7">
         <v>44172</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="10" t="s">
+      <c r="K35" s="7">
+        <v>44173</v>
+      </c>
+      <c r="L35" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>41</v>
       </c>
@@ -2553,13 +2546,12 @@
         <v>44174</v>
       </c>
       <c r="K36" s="7"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="10" t="s">
+      <c r="L36" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>42</v>
       </c>
@@ -2567,7 +2559,7 @@
         <v>55</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -2582,15 +2574,16 @@
       <c r="I37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="10" t="s">
+      <c r="J37" s="7">
+        <v>44175</v>
+      </c>
+      <c r="K37" s="23"/>
+      <c r="L37" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>43</v>
       </c>
@@ -2613,15 +2606,18 @@
       <c r="I38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="10" t="s">
+      <c r="J38" s="22">
+        <v>44178</v>
+      </c>
+      <c r="K38" s="7">
+        <v>44179</v>
+      </c>
+      <c r="L38" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>44</v>
       </c>
@@ -2644,15 +2640,16 @@
       <c r="I39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J39" s="7"/>
+      <c r="J39" s="7">
+        <v>44180</v>
+      </c>
       <c r="K39" s="7"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="10" t="s">
+      <c r="L39" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>45</v>
       </c>
@@ -2675,15 +2672,16 @@
       <c r="I40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J40" s="7"/>
+      <c r="J40" s="7">
+        <v>44181</v>
+      </c>
       <c r="K40" s="7"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="10" t="s">
+      <c r="L40" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>46</v>
       </c>
@@ -2706,15 +2704,16 @@
       <c r="I41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J41" s="7"/>
+      <c r="J41" s="7">
+        <v>44182</v>
+      </c>
       <c r="K41" s="7"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="10" t="s">
+      <c r="L41" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>47</v>
       </c>
@@ -2737,15 +2736,16 @@
       <c r="I42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="7"/>
+      <c r="J42" s="7">
+        <v>44185</v>
+      </c>
       <c r="K42" s="7"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="10" t="s">
+      <c r="L42" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>48</v>
       </c>
@@ -2768,15 +2768,16 @@
       <c r="I43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="7"/>
+      <c r="J43" s="7">
+        <v>44186</v>
+      </c>
       <c r="K43" s="7"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="10" t="s">
+      <c r="L43" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>49</v>
       </c>
@@ -2799,15 +2800,16 @@
       <c r="I44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="6"/>
+      <c r="J44" s="7">
+        <v>44187</v>
+      </c>
       <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="10" t="s">
+      <c r="L44" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>50</v>
       </c>
@@ -2830,15 +2832,16 @@
       <c r="I45" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="6"/>
+      <c r="J45" s="7">
+        <v>44188</v>
+      </c>
       <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="10" t="s">
+      <c r="L45" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N45" s="4"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>151</v>
       </c>
@@ -2861,15 +2864,16 @@
       <c r="I46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="6"/>
+      <c r="J46" s="7">
+        <v>44189</v>
+      </c>
       <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="10" t="s">
+      <c r="L46" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N46" s="4"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>152</v>
       </c>
@@ -2892,15 +2896,16 @@
       <c r="I47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="6"/>
+      <c r="J47" s="7">
+        <v>44192</v>
+      </c>
       <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="10" t="s">
+      <c r="L47" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N47" s="4"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>51</v>
       </c>
@@ -2923,15 +2928,16 @@
       <c r="I48" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="6"/>
+      <c r="J48" s="7">
+        <v>44193</v>
+      </c>
       <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="10" t="s">
+      <c r="L48" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N48" s="4"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>52</v>
       </c>
@@ -2954,15 +2960,16 @@
       <c r="I49" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="6"/>
+      <c r="J49" s="7">
+        <v>44194</v>
+      </c>
       <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="10" t="s">
+      <c r="L49" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N49" s="4"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>53</v>
       </c>
@@ -2985,15 +2992,16 @@
       <c r="I50" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="6"/>
+      <c r="J50" s="7">
+        <v>44195</v>
+      </c>
       <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="10" t="s">
+      <c r="L50" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N50" s="4"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>54</v>
       </c>
@@ -3016,15 +3024,16 @@
       <c r="I51" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="10" t="s">
+      <c r="J51" s="7">
+        <v>44195</v>
+      </c>
+      <c r="K51" s="25"/>
+      <c r="L51" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N51" s="4"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -3035,11 +3044,10 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="4"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L52" s="10"/>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -3050,11 +3058,10 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="4"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L53" s="10"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -3065,11 +3072,10 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="4"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L54" s="10"/>
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -3080,11 +3086,10 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="4"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L55" s="10"/>
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -3095,11 +3100,10 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="4"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L56" s="10"/>
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -3110,11 +3114,10 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="4"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L57" s="10"/>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -3125,11 +3128,10 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="4"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L58" s="10"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -3140,11 +3142,10 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="4"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L59" s="10"/>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -3155,11 +3156,10 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="4"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L60" s="10"/>
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -3170,11 +3170,10 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="4"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L61" s="10"/>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -3185,11 +3184,10 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="4"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L62" s="10"/>
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -3200,11 +3198,10 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="4"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L63" s="10"/>
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -3215,11 +3212,10 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="4"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L64" s="10"/>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -3230,11 +3226,10 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="4"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L65" s="10"/>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -3245,11 +3240,10 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="4"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L66" s="10"/>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -3260,11 +3254,10 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="4"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L67" s="10"/>
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -3275,11 +3268,10 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="4"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L68" s="10"/>
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -3290,11 +3282,10 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="4"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L69" s="10"/>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -3305,11 +3296,10 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="4"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L70" s="10"/>
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -3320,11 +3310,10 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="4"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L71" s="10"/>
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -3335,11 +3324,10 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="4"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L72" s="10"/>
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -3350,11 +3338,10 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="4"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L73" s="10"/>
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -3365,11 +3352,10 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="4"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L74" s="10"/>
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -3380,11 +3366,10 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="4"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L75" s="10"/>
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3395,11 +3380,10 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="4"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L76" s="10"/>
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -3410,11 +3394,10 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="4"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L77" s="10"/>
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3425,11 +3408,10 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="4"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L78" s="10"/>
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -3440,11 +3422,10 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="4"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L79" s="10"/>
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -3455,11 +3436,10 @@
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="4"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L80" s="10"/>
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3470,11 +3450,10 @@
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="4"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L81" s="10"/>
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -3485,11 +3464,10 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="4"/>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L82" s="10"/>
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3500,11 +3478,10 @@
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="4"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L83" s="10"/>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3515,11 +3492,10 @@
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="4"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L84" s="10"/>
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3530,11 +3506,10 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="4"/>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L85" s="10"/>
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -3545,11 +3520,10 @@
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="4"/>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L86" s="10"/>
+      <c r="M86" s="4"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -3560,11 +3534,10 @@
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="4"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L87" s="10"/>
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -3575,11 +3548,10 @@
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="4"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L88" s="10"/>
+      <c r="M88" s="4"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -3590,11 +3562,10 @@
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="4"/>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L89" s="10"/>
+      <c r="M89" s="4"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -3605,11 +3576,10 @@
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="4"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L90" s="10"/>
+      <c r="M90" s="4"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -3620,11 +3590,10 @@
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="4"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L91" s="10"/>
+      <c r="M91" s="4"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -3635,11 +3604,10 @@
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="4"/>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L92" s="10"/>
+      <c r="M92" s="4"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -3650,11 +3618,10 @@
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="4"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L93" s="10"/>
+      <c r="M93" s="4"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -3665,11 +3632,10 @@
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="4"/>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L94" s="10"/>
+      <c r="M94" s="4"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -3680,11 +3646,10 @@
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="4"/>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L95" s="10"/>
+      <c r="M95" s="4"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -3695,11 +3660,10 @@
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="4"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L96" s="10"/>
+      <c r="M96" s="4"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -3710,11 +3674,10 @@
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="4"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L97" s="10"/>
+      <c r="M97" s="4"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -3725,11 +3688,10 @@
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="4"/>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L98" s="10"/>
+      <c r="M98" s="4"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -3740,11 +3702,10 @@
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="4"/>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L99" s="10"/>
+      <c r="M99" s="4"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -3755,11 +3716,10 @@
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="4"/>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L100" s="10"/>
+      <c r="M100" s="4"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -3770,11 +3730,10 @@
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="4"/>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L101" s="10"/>
+      <c r="M101" s="4"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -3785,11 +3744,10 @@
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="4"/>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L102" s="10"/>
+      <c r="M102" s="4"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -3800,11 +3758,10 @@
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="4"/>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L103" s="10"/>
+      <c r="M103" s="4"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -3815,11 +3772,10 @@
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="4"/>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L104" s="10"/>
+      <c r="M104" s="4"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -3830,11 +3786,10 @@
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="4"/>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L105" s="10"/>
+      <c r="M105" s="4"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -3845,11 +3800,10 @@
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="4"/>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L106" s="10"/>
+      <c r="M106" s="4"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -3860,11 +3814,10 @@
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="4"/>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L107" s="10"/>
+      <c r="M107" s="4"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -3875,11 +3828,10 @@
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="4"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L108" s="10"/>
+      <c r="M108" s="4"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -3890,11 +3842,10 @@
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="4"/>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L109" s="10"/>
+      <c r="M109" s="4"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -3905,11 +3856,10 @@
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="4"/>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L110" s="10"/>
+      <c r="M110" s="4"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -3920,11 +3870,10 @@
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="10"/>
-      <c r="N111" s="4"/>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L111" s="10"/>
+      <c r="M111" s="4"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -3935,11 +3884,10 @@
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="10"/>
-      <c r="N112" s="4"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L112" s="10"/>
+      <c r="M112" s="4"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -3950,14 +3898,13 @@
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="10"/>
-      <c r="N113" s="4"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:N2"/>
+  <autoFilter ref="B2:M2"/>
   <mergeCells count="1">
-    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -1321,8 +1321,8 @@
   <dimension ref="B1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebSquare_Studio\x64\websquare_20.0624\workspace\new_ucube_m\WebContent\static\web\pub\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DA6699-4AF5-4168-B903-FE49759BA667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="퍼블리싱목록" sheetId="3" r:id="rId1"/>
@@ -15,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">퍼블리싱목록!$B$2:$M$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="162">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,7 +654,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -852,9 +858,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,6 +887,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -924,7 +930,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -988,7 +994,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1074,7 +1080,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1107,9 +1113,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1142,6 +1165,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1317,12 +1357,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1332,35 +1372,35 @@
     <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="17" customWidth="1"/>
-    <col min="10" max="11" width="11.5" style="17" customWidth="1"/>
-    <col min="12" max="12" width="30.625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="16" customWidth="1"/>
+    <col min="10" max="11" width="11.5" style="16" customWidth="1"/>
+    <col min="12" max="12" width="30.625" style="20" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="18" t="str">
+      <c r="B1" s="17" t="str">
         <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B10013)&amp;"건"</f>
         <v>퍼블리싱업무 총물량 49건</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="20" t="str">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19" t="str">
         <f>"총완료 "&amp;COUNTA(K3:K10013)&amp;"건"</f>
-        <v>총완료 33건</v>
-      </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="15"/>
+        <v>총완료 34건</v>
+      </c>
+      <c r="M1" s="17"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -1399,7 +1439,7 @@
       <c r="M2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="N2" s="15"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -1424,10 +1464,10 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>44136</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="23">
         <v>44136</v>
       </c>
       <c r="L3" s="10" t="s">
@@ -1757,7 +1797,7 @@
       <c r="F13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>157</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -1791,7 +1831,7 @@
       <c r="F14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>157</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -1825,7 +1865,7 @@
       <c r="F15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -1859,7 +1899,7 @@
       <c r="F16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -1893,7 +1933,7 @@
       <c r="F17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -1927,7 +1967,7 @@
       <c r="F18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -1961,7 +2001,7 @@
       <c r="F19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H19" s="6" t="s">
@@ -1995,7 +2035,7 @@
       <c r="F20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -2029,7 +2069,7 @@
       <c r="F21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -2063,7 +2103,7 @@
       <c r="F22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H22" s="6" t="s">
@@ -2097,7 +2137,7 @@
       <c r="F23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H23" s="6" t="s">
@@ -2131,7 +2171,7 @@
       <c r="F24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -2165,7 +2205,7 @@
       <c r="F25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H25" s="6" t="s">
@@ -2199,7 +2239,7 @@
       <c r="F26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H26" s="6" t="s">
@@ -2233,7 +2273,7 @@
       <c r="F27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H27" s="6" t="s">
@@ -2267,7 +2307,7 @@
       <c r="F28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H28" s="6" t="s">
@@ -2301,7 +2341,7 @@
       <c r="F29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H29" s="6" t="s">
@@ -2335,7 +2375,7 @@
       <c r="F30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H30" s="6" t="s">
@@ -2369,7 +2409,7 @@
       <c r="F31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H31" s="6" t="s">
@@ -2378,10 +2418,10 @@
       <c r="I31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="21">
         <v>44166</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="23">
         <v>44166</v>
       </c>
       <c r="L31" s="10"/>
@@ -2403,7 +2443,7 @@
       <c r="F32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H32" s="6" t="s">
@@ -2437,7 +2477,7 @@
       <c r="F33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H33" s="6" t="s">
@@ -2449,7 +2489,7 @@
       <c r="J33" s="7">
         <v>44168</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="22">
         <v>44168</v>
       </c>
       <c r="L33" s="10"/>
@@ -2466,10 +2506,12 @@
         <v>140</v>
       </c>
       <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H34" s="6" t="s">
@@ -2481,7 +2523,9 @@
       <c r="J34" s="7">
         <v>44171</v>
       </c>
-      <c r="K34" s="7"/>
+      <c r="K34" s="7">
+        <v>44171</v>
+      </c>
       <c r="L34" s="10"/>
       <c r="M34" s="4"/>
     </row>
@@ -2499,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H35" s="9" t="s">
@@ -2533,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H36" s="9" t="s">
@@ -2565,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H37" s="9" t="s">
@@ -2577,7 +2621,7 @@
       <c r="J37" s="7">
         <v>44175</v>
       </c>
-      <c r="K37" s="23"/>
+      <c r="K37" s="22"/>
       <c r="L37" s="10" t="s">
         <v>149</v>
       </c>
@@ -2597,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H38" s="9" t="s">
@@ -2606,7 +2650,7 @@
       <c r="I38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="21">
         <v>44178</v>
       </c>
       <c r="K38" s="7">
@@ -2631,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H39" s="9" t="s">
@@ -2663,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H40" s="9" t="s">
@@ -2695,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H41" s="9" t="s">
@@ -2727,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H42" s="9" t="s">
@@ -2759,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H43" s="9" t="s">
@@ -2791,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H44" s="9" t="s">
@@ -2823,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H45" s="9" t="s">
@@ -2855,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H46" s="9" t="s">
@@ -2887,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H47" s="9" t="s">
@@ -2919,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H48" s="9" t="s">
@@ -2951,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H49" s="9" t="s">
@@ -2983,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="6"/>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H50" s="9" t="s">
@@ -3015,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H51" s="9" t="s">
@@ -3027,7 +3071,7 @@
       <c r="J51" s="7">
         <v>44195</v>
       </c>
-      <c r="K51" s="25"/>
+      <c r="K51" s="24"/>
       <c r="L51" s="10" t="s">
         <v>149</v>
       </c>
@@ -3902,51 +3946,51 @@
       <c r="M113" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:M2"/>
+  <autoFilter ref="B2:M2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="N1:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G13" r:id="rId1"/>
-    <hyperlink ref="G14" r:id="rId2"/>
-    <hyperlink ref="G15" r:id="rId3"/>
-    <hyperlink ref="G16" r:id="rId4"/>
-    <hyperlink ref="G17" r:id="rId5"/>
-    <hyperlink ref="G18" r:id="rId6"/>
-    <hyperlink ref="G19" r:id="rId7"/>
-    <hyperlink ref="G20" r:id="rId8"/>
-    <hyperlink ref="G21" r:id="rId9"/>
-    <hyperlink ref="G22" r:id="rId10"/>
-    <hyperlink ref="G23" r:id="rId11"/>
-    <hyperlink ref="G24" r:id="rId12"/>
-    <hyperlink ref="G25" r:id="rId13"/>
-    <hyperlink ref="G26" r:id="rId14"/>
-    <hyperlink ref="G27" r:id="rId15"/>
-    <hyperlink ref="G28" r:id="rId16"/>
-    <hyperlink ref="G29" r:id="rId17"/>
-    <hyperlink ref="G30" r:id="rId18"/>
-    <hyperlink ref="G31" r:id="rId19"/>
-    <hyperlink ref="G32" r:id="rId20"/>
-    <hyperlink ref="G33" r:id="rId21"/>
-    <hyperlink ref="G34" r:id="rId22"/>
-    <hyperlink ref="G35" r:id="rId23"/>
-    <hyperlink ref="G36" r:id="rId24"/>
-    <hyperlink ref="G37" r:id="rId25"/>
-    <hyperlink ref="G38" r:id="rId26"/>
-    <hyperlink ref="G39" r:id="rId27"/>
-    <hyperlink ref="G40" r:id="rId28"/>
-    <hyperlink ref="G41" r:id="rId29"/>
-    <hyperlink ref="G42" r:id="rId30"/>
-    <hyperlink ref="G43" r:id="rId31"/>
-    <hyperlink ref="G44" r:id="rId32"/>
-    <hyperlink ref="G45" r:id="rId33"/>
-    <hyperlink ref="G46" r:id="rId34"/>
-    <hyperlink ref="G47" r:id="rId35"/>
-    <hyperlink ref="G48" r:id="rId36"/>
-    <hyperlink ref="G49" r:id="rId37"/>
-    <hyperlink ref="G50" r:id="rId38"/>
-    <hyperlink ref="G51" r:id="rId39"/>
+    <hyperlink ref="G13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G18" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G38" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G39" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G40" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G41" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G45" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G46" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G47" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G49" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G50" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G51" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId40"/>
@@ -3955,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3995,7 +4039,7 @@
         <v>총완료 0건</v>
       </c>
       <c r="M1" s="8"/>
-      <c r="N1" s="15"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -4032,7 +4076,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="15"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -5451,7 +5495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C3:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5541,7 +5585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebSquare_Studio\x64\websquare_20.0624\workspace\new_ucube_m\WebContent\static\web\pub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DA6699-4AF5-4168-B903-FE49759BA667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8078E42B-526D-43B7-8FEB-BDEF5419FFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="162">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1361,8 +1361,8 @@
   <dimension ref="B1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2540,9 +2540,11 @@
         <v>103</v>
       </c>
       <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G35" s="15" t="s">
         <v>158</v>
       </c>
@@ -2574,9 +2576,11 @@
         <v>58</v>
       </c>
       <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G36" s="15" t="s">
         <v>158</v>
       </c>
@@ -2589,7 +2593,9 @@
       <c r="J36" s="7">
         <v>44174</v>
       </c>
-      <c r="K36" s="7"/>
+      <c r="K36" s="7">
+        <v>44174</v>
+      </c>
       <c r="L36" s="10" t="s">
         <v>149</v>
       </c>
@@ -2605,9 +2611,7 @@
       <c r="D37" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" s="15" t="s">
         <v>158</v>
@@ -2621,7 +2625,7 @@
       <c r="J37" s="7">
         <v>44175</v>
       </c>
-      <c r="K37" s="22"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="10" t="s">
         <v>149</v>
       </c>
@@ -2637,9 +2641,7 @@
       <c r="D38" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="5">
-        <v>0</v>
-      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="6"/>
       <c r="G38" s="15" t="s">
         <v>158</v>
@@ -2653,9 +2655,7 @@
       <c r="J38" s="21">
         <v>44178</v>
       </c>
-      <c r="K38" s="7">
-        <v>44179</v>
-      </c>
+      <c r="K38" s="7"/>
       <c r="L38" s="10" t="s">
         <v>149</v>
       </c>
@@ -2671,9 +2671,7 @@
       <c r="D39" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
+      <c r="E39" s="5"/>
       <c r="F39" s="6"/>
       <c r="G39" s="15" t="s">
         <v>158</v>
@@ -2703,9 +2701,7 @@
       <c r="D40" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
+      <c r="E40" s="5"/>
       <c r="F40" s="6"/>
       <c r="G40" s="15" t="s">
         <v>158</v>
@@ -2735,9 +2731,7 @@
       <c r="D41" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
+      <c r="E41" s="5"/>
       <c r="F41" s="6"/>
       <c r="G41" s="15" t="s">
         <v>158</v>
@@ -2767,9 +2761,7 @@
       <c r="D42" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="5">
-        <v>0</v>
-      </c>
+      <c r="E42" s="5"/>
       <c r="F42" s="6"/>
       <c r="G42" s="15" t="s">
         <v>158</v>
@@ -2799,9 +2791,7 @@
       <c r="D43" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
+      <c r="E43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="15" t="s">
         <v>158</v>
@@ -2831,9 +2821,7 @@
       <c r="D44" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="5">
-        <v>0</v>
-      </c>
+      <c r="E44" s="5"/>
       <c r="F44" s="6"/>
       <c r="G44" s="15" t="s">
         <v>158</v>
@@ -2863,9 +2851,7 @@
       <c r="D45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="5">
-        <v>0</v>
-      </c>
+      <c r="E45" s="5"/>
       <c r="F45" s="6"/>
       <c r="G45" s="15" t="s">
         <v>158</v>
@@ -2895,9 +2881,7 @@
       <c r="D46" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
+      <c r="E46" s="5"/>
       <c r="F46" s="6"/>
       <c r="G46" s="15" t="s">
         <v>158</v>
@@ -2927,9 +2911,7 @@
       <c r="D47" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
+      <c r="E47" s="5"/>
       <c r="F47" s="6"/>
       <c r="G47" s="15" t="s">
         <v>158</v>
@@ -2959,9 +2941,7 @@
       <c r="D48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="5">
-        <v>0</v>
-      </c>
+      <c r="E48" s="5"/>
       <c r="F48" s="6"/>
       <c r="G48" s="15" t="s">
         <v>158</v>
@@ -2991,9 +2971,7 @@
       <c r="D49" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
+      <c r="E49" s="5"/>
       <c r="F49" s="6"/>
       <c r="G49" s="15" t="s">
         <v>158</v>
@@ -3023,9 +3001,7 @@
       <c r="D50" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="5">
-        <v>0</v>
-      </c>
+      <c r="E50" s="5"/>
       <c r="F50" s="6"/>
       <c r="G50" s="15" t="s">
         <v>158</v>
@@ -3055,9 +3031,7 @@
       <c r="D51" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="5">
-        <v>0</v>
-      </c>
+      <c r="E51" s="5"/>
       <c r="F51" s="6"/>
       <c r="G51" s="15" t="s">
         <v>158</v>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebSquare_Studio\x64\websquare_20.0624\workspace\new_ucube_m\WebContent\static\web\pub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8078E42B-526D-43B7-8FEB-BDEF5419FFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772BD7E2-A313-43C5-9907-570180B2F7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,330 +324,331 @@
     <t>F06-1_BottomSheet</t>
   </si>
   <si>
+    <t>F04-1_PopupFull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C01-1_Buttons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C02-1_ToggleSwich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C03-1_InputForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C04-1_SildeBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C05-1_MessageBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C06-1_TabControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C07-1_Icons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C08-1_DarkMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템설정파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임구성항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/.settings/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/websquare/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/css/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/fonts/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/common/js/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>websquare.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>websquare.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noto-sans-kr.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noto Sans KR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swiper.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swiper.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P01-1_Main_ToDo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic - main frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic - sub frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic - popup frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C09-1_BasicMainFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C09-2_BasicSubFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C09-3_BasicPopupFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹스퀘어스튜디오설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 프로젝트추가 및 경로설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 doctype, viewport 속성 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark모드 컬러값 변수처리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본고딕폰트css작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본고딕웹폰트파일변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐러셀 라이브러리 css작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐러셀 라이브러리 커스터마이징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹스퀘어 라이선스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인화면 웹?앱? 하이브리드앱? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">디바이스UI 세로사이즈에 포함, 불포함 </t>
+  </si>
+  <si>
+    <t>font-stretch(장평) 웹폰트 적용불가</t>
+  </si>
+  <si>
+    <t>핸드폰 모델별 아이폰하단메뉴 높이</t>
+  </si>
+  <si>
+    <t>필터항목 component는 어떤걸로? 현재는 체크박스</t>
+  </si>
+  <si>
+    <t>날짜입력폼 native로 하는건 어떨지</t>
+  </si>
+  <si>
+    <t>체크박스 체크된 이미지 필요 계속버튼 활성이미지 필요</t>
+  </si>
+  <si>
+    <t>레이아웃 다시 잡기 flex direction column</t>
+  </si>
+  <si>
+    <t>화면분할 4분할</t>
+  </si>
+  <si>
+    <t>dark모드</t>
+  </si>
+  <si>
+    <t>캘린더 2종 그냥캘린더 스케줄캘린더</t>
+  </si>
+  <si>
+    <t>알림 push 화면</t>
+  </si>
+  <si>
+    <t>figma : sang1009@naver.com // 0504tkdwns!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule calendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C09-2-1_BasicSubFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic - sub frame - whitebg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C99-1_ScheduleCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10-1_GridView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C11-1_TableLayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할부중</t>
+  </si>
+  <si>
+    <t>할부완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2097-64</t>
+  </si>
+  <si>
+    <t>grid view - type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10-2_GridView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainPage,가입정보조회,공통영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥화면 - 전체메뉴 - type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥화면 - 전체메뉴 - type2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P10-1_Main_AllMenu_type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P10-2_Main_AllMenu_type2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid view - type2 - fullsize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 css파일 설정(reset, layout)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶</t>
+  </si>
+  <si>
+    <t>▶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F03-1_Drawer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P03-1_Main_CustomerSearchResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>F07-1_ToastMessage</t>
-  </si>
-  <si>
-    <t>F04-1_PopupFull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C01-1_Buttons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C02-1_ToggleSwich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C03-1_InputForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C04-1_SildeBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C05-1_MessageBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C06-1_TabControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C07-1_Icons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C08-1_DarkMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템설정파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프레임구성항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>local</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/.settings/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/websquare/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/css/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/fonts/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/js/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>websquare.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>config.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>websquare.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all.css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noto-sans-kr.css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Noto Sans KR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swiper.css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swiper.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P01-1_Main_ToDo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic - main frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic - sub frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic - popup frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C09-1_BasicMainFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C09-2_BasicSubFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C09-3_BasicPopupFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹스퀘어스튜디오설치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임시 프로젝트추가 및 경로설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일 doctype, viewport 속성 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark모드 컬러값 변수처리 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본고딕폰트css작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본고딕웹폰트파일변환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐러셀 라이브러리 css작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐러셀 라이브러리 커스터마이징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹스퀘어 라이선스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">로그인화면 웹?앱? 하이브리드앱? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">디바이스UI 세로사이즈에 포함, 불포함 </t>
-  </si>
-  <si>
-    <t>font-stretch(장평) 웹폰트 적용불가</t>
-  </si>
-  <si>
-    <t>핸드폰 모델별 아이폰하단메뉴 높이</t>
-  </si>
-  <si>
-    <t>필터항목 component는 어떤걸로? 현재는 체크박스</t>
-  </si>
-  <si>
-    <t>날짜입력폼 native로 하는건 어떨지</t>
-  </si>
-  <si>
-    <t>체크박스 체크된 이미지 필요 계속버튼 활성이미지 필요</t>
-  </si>
-  <si>
-    <t>레이아웃 다시 잡기 flex direction column</t>
-  </si>
-  <si>
-    <t>화면분할 4분할</t>
-  </si>
-  <si>
-    <t>dark모드</t>
-  </si>
-  <si>
-    <t>캘린더 2종 그냥캘린더 스케줄캘린더</t>
-  </si>
-  <si>
-    <t>알림 push 화면</t>
-  </si>
-  <si>
-    <t>figma : sang1009@naver.com // 0504tkdwns!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buttons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schedule calendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C09-2-1_BasicSubFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic - sub frame - whitebg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C99-1_ScheduleCalendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10-1_GridView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C11-1_TableLayout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할부중</t>
-  </si>
-  <si>
-    <t>할부완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2097-64</t>
-  </si>
-  <si>
-    <t>grid view - type1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10-2_GridView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JIRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainPage,가입정보조회,공통영역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prototype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바닥화면 - 전체메뉴 - type1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바닥화면 - 전체메뉴 - type2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P10-1_Main_AllMenu_type1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P10-2_Main_AllMenu_type2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grid view - type2 - fullsize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일 css파일 설정(reset, layout)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>▶</t>
-  </si>
-  <si>
-    <t>▶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F03-1_Drawer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P03-1_Main_CustomerSearchResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1361,8 +1362,8 @@
   <dimension ref="B1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1419,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -1428,16 +1429,16 @@
         <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N2" s="25"/>
     </row>
@@ -1480,10 +1481,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1493,7 +1494,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>16</v>
@@ -1505,7 +1506,7 @@
         <v>44136</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M4" s="4"/>
     </row>
@@ -1514,10 +1515,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1527,7 +1528,7 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>16</v>
@@ -1539,7 +1540,7 @@
         <v>44137</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M5" s="4"/>
     </row>
@@ -1548,10 +1549,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1561,7 +1562,7 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>16</v>
@@ -1573,7 +1574,7 @@
         <v>44137</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M6" s="4"/>
     </row>
@@ -1582,10 +1583,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1595,7 +1596,7 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>16</v>
@@ -1607,7 +1608,7 @@
         <v>44138</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M7" s="4"/>
     </row>
@@ -1616,10 +1617,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1629,7 +1630,7 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>16</v>
@@ -1641,7 +1642,7 @@
         <v>44138</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M8" s="4"/>
     </row>
@@ -1650,10 +1651,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1663,7 +1664,7 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>16</v>
@@ -1675,7 +1676,7 @@
         <v>44139</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M9" s="4"/>
     </row>
@@ -1684,10 +1685,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1697,7 +1698,7 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>16</v>
@@ -1709,7 +1710,7 @@
         <v>44139</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M10" s="4"/>
     </row>
@@ -1718,10 +1719,10 @@
         <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1731,7 +1732,7 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>16</v>
@@ -1743,7 +1744,7 @@
         <v>44140</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M11" s="4"/>
     </row>
@@ -1752,10 +1753,10 @@
         <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1765,7 +1766,7 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>16</v>
@@ -1777,7 +1778,7 @@
         <v>44140</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M12" s="4"/>
     </row>
@@ -1798,10 +1799,10 @@
         <v>14</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>16</v>
@@ -1832,10 +1833,10 @@
         <v>14</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>16</v>
@@ -1857,7 +1858,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1866,10 +1867,10 @@
         <v>14</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>16</v>
@@ -1891,7 +1892,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1900,10 +1901,10 @@
         <v>14</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>16</v>
@@ -1934,10 +1935,10 @@
         <v>14</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>16</v>
@@ -1968,10 +1969,10 @@
         <v>14</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>16</v>
@@ -1993,7 +1994,7 @@
         <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -2002,10 +2003,10 @@
         <v>14</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>16</v>
@@ -2021,13 +2022,13 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -2036,10 +2037,10 @@
         <v>14</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>16</v>
@@ -2061,7 +2062,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -2070,10 +2071,10 @@
         <v>14</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>16</v>
@@ -2095,7 +2096,7 @@
         <v>55</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -2104,10 +2105,10 @@
         <v>14</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>16</v>
@@ -2129,7 +2130,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -2138,10 +2139,10 @@
         <v>14</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>16</v>
@@ -2163,7 +2164,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -2172,10 +2173,10 @@
         <v>14</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>16</v>
@@ -2197,7 +2198,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -2206,10 +2207,10 @@
         <v>14</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>16</v>
@@ -2231,7 +2232,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -2240,10 +2241,10 @@
         <v>14</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>16</v>
@@ -2265,7 +2266,7 @@
         <v>55</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -2274,10 +2275,10 @@
         <v>14</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>16</v>
@@ -2293,13 +2294,13 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -2308,10 +2309,10 @@
         <v>14</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>16</v>
@@ -2327,13 +2328,13 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
@@ -2342,10 +2343,10 @@
         <v>14</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>16</v>
@@ -2361,13 +2362,13 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -2376,10 +2377,10 @@
         <v>14</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>16</v>
@@ -2395,13 +2396,13 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -2410,10 +2411,10 @@
         <v>14</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>16</v>
@@ -2429,13 +2430,13 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -2444,10 +2445,10 @@
         <v>14</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>16</v>
@@ -2463,13 +2464,13 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -2478,10 +2479,10 @@
         <v>14</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>16</v>
@@ -2497,13 +2498,13 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -2512,10 +2513,10 @@
         <v>14</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>16</v>
@@ -2537,7 +2538,7 @@
         <v>55</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
@@ -2546,10 +2547,10 @@
         <v>14</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>16</v>
@@ -2561,7 +2562,7 @@
         <v>44173</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M35" s="4"/>
     </row>
@@ -2582,10 +2583,10 @@
         <v>14</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>16</v>
@@ -2597,7 +2598,7 @@
         <v>44174</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M36" s="4"/>
     </row>
@@ -2609,15 +2610,15 @@
         <v>55</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>16</v>
@@ -2627,7 +2628,7 @@
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M37" s="4"/>
     </row>
@@ -2644,10 +2645,10 @@
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
       <c r="G38" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>16</v>
@@ -2657,7 +2658,7 @@
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M38" s="4"/>
     </row>
@@ -2674,10 +2675,10 @@
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
       <c r="G39" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>16</v>
@@ -2687,7 +2688,7 @@
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M39" s="4"/>
     </row>
@@ -2704,10 +2705,10 @@
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
       <c r="G40" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>16</v>
@@ -2717,7 +2718,7 @@
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M40" s="4"/>
     </row>
@@ -2734,10 +2735,10 @@
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
       <c r="G41" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>16</v>
@@ -2747,7 +2748,7 @@
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M41" s="4"/>
     </row>
@@ -2764,10 +2765,10 @@
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
       <c r="G42" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>16</v>
@@ -2777,7 +2778,7 @@
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M42" s="4"/>
     </row>
@@ -2794,10 +2795,10 @@
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>16</v>
@@ -2807,7 +2808,7 @@
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M43" s="4"/>
     </row>
@@ -2824,10 +2825,10 @@
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
       <c r="G44" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>16</v>
@@ -2837,7 +2838,7 @@
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M44" s="4"/>
     </row>
@@ -2854,10 +2855,10 @@
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
       <c r="G45" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>16</v>
@@ -2867,27 +2868,27 @@
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
       <c r="G46" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>16</v>
@@ -2897,27 +2898,27 @@
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
       <c r="G47" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>16</v>
@@ -2927,7 +2928,7 @@
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M47" s="4"/>
     </row>
@@ -2944,10 +2945,10 @@
       <c r="E48" s="5"/>
       <c r="F48" s="6"/>
       <c r="G48" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>16</v>
@@ -2957,7 +2958,7 @@
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M48" s="4"/>
     </row>
@@ -2974,10 +2975,10 @@
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
       <c r="G49" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>16</v>
@@ -2987,7 +2988,7 @@
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M49" s="4"/>
     </row>
@@ -3004,10 +3005,10 @@
       <c r="E50" s="5"/>
       <c r="F50" s="6"/>
       <c r="G50" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>16</v>
@@ -3017,7 +3018,7 @@
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M50" s="4"/>
     </row>
@@ -3034,10 +3035,10 @@
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
       <c r="G51" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>16</v>
@@ -3047,7 +3048,7 @@
       </c>
       <c r="K51" s="24"/>
       <c r="L51" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M51" s="4"/>
     </row>
@@ -4158,7 +4159,7 @@
         <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -4438,13 +4439,13 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -4464,13 +4465,13 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -4636,20 +4637,20 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" s="12">
         <v>0</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>16</v>
@@ -5483,72 +5484,72 @@
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5570,10 +5571,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1">
         <v>36</v>
@@ -5596,10 +5597,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2">
         <v>36</v>
@@ -5622,10 +5623,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3">
         <v>36</v>
@@ -5648,10 +5649,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4">
         <v>36</v>
@@ -5674,10 +5675,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5">
         <v>36</v>
@@ -5700,10 +5701,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6">
         <v>36</v>
@@ -5726,10 +5727,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
         <v>142</v>
-      </c>
-      <c r="B7" t="s">
-        <v>143</v>
       </c>
       <c r="C7">
         <v>36</v>
@@ -5752,10 +5753,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
         <v>142</v>
-      </c>
-      <c r="B8" t="s">
-        <v>143</v>
       </c>
       <c r="C8">
         <v>36</v>
@@ -5778,10 +5779,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
         <v>142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
       </c>
       <c r="C9">
         <v>36</v>
@@ -5804,10 +5805,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
         <v>142</v>
-      </c>
-      <c r="B10" t="s">
-        <v>143</v>
       </c>
       <c r="C10">
         <v>36</v>
@@ -5830,10 +5831,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
         <v>142</v>
-      </c>
-      <c r="B11" t="s">
-        <v>143</v>
       </c>
       <c r="C11">
         <v>36</v>
@@ -5856,10 +5857,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
         <v>142</v>
-      </c>
-      <c r="B12" t="s">
-        <v>143</v>
       </c>
       <c r="C12">
         <v>36</v>
@@ -5882,10 +5883,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" t="s">
         <v>142</v>
-      </c>
-      <c r="B13" t="s">
-        <v>143</v>
       </c>
       <c r="C13">
         <v>36</v>
@@ -5908,10 +5909,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" t="s">
         <v>142</v>
-      </c>
-      <c r="B14" t="s">
-        <v>143</v>
       </c>
       <c r="C14">
         <v>36</v>
@@ -5934,10 +5935,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" t="s">
         <v>142</v>
-      </c>
-      <c r="B15" t="s">
-        <v>143</v>
       </c>
       <c r="C15">
         <v>36</v>

--- a/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
+++ b/new_ucube_m/WebContent/static/web/pub/차세대UCube-모바일-퍼블리싱일정관리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebSquare_Studio\x64\websquare_20.0624\workspace\new_ucube_m\WebContent\static\web\pub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772BD7E2-A313-43C5-9907-570180B2F7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1648C5-F4B6-4192-9CEC-CF75C7CD74D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="퍼블리싱목록" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$B$2:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">퍼블리싱목록!$B$2:$M$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="159">
   <si>
     <t>화면명(업무명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,16 +566,6 @@
   <si>
     <t>C11-1_TableLayout</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할부중</t>
-  </si>
-  <si>
-    <t>할부완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2097-64</t>
   </si>
   <si>
     <t>grid view - type1</t>
@@ -813,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,9 +846,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1361,9 +1349,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O48" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1373,35 +1361,35 @@
     <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="16" customWidth="1"/>
-    <col min="10" max="11" width="11.5" style="16" customWidth="1"/>
-    <col min="12" max="12" width="30.625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="15" customWidth="1"/>
+    <col min="10" max="11" width="11.5" style="15" customWidth="1"/>
+    <col min="12" max="12" width="30.625" style="19" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="str">
+      <c r="B1" s="16" t="str">
         <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B10013)&amp;"건"</f>
         <v>퍼블리싱업무 총물량 49건</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19" t="str">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18" t="str">
         <f>"총완료 "&amp;COUNTA(K3:K10013)&amp;"건"</f>
         <v>총완료 34건</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="25"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -1420,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -1429,18 +1417,18 @@
         <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="N2" s="25"/>
+        <v>144</v>
+      </c>
+      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -1465,10 +1453,10 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <v>44136</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <v>44136</v>
       </c>
       <c r="L3" s="10" t="s">
@@ -1608,7 +1596,7 @@
         <v>44138</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M7" s="4"/>
     </row>
@@ -1798,8 +1786,8 @@
       <c r="F13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>156</v>
+      <c r="G13" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>87</v>
@@ -1832,8 +1820,8 @@
       <c r="F14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>156</v>
+      <c r="G14" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>87</v>
@@ -1858,7 +1846,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1866,8 +1854,8 @@
       <c r="F15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>157</v>
+      <c r="G15" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>87</v>
@@ -1900,8 +1888,8 @@
       <c r="F16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>157</v>
+      <c r="G16" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>87</v>
@@ -1934,8 +1922,8 @@
       <c r="F17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>157</v>
+      <c r="G17" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>87</v>
@@ -1968,8 +1956,8 @@
       <c r="F18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>157</v>
+      <c r="G18" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>87</v>
@@ -1994,7 +1982,7 @@
         <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -2002,8 +1990,8 @@
       <c r="F19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>157</v>
+      <c r="G19" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>87</v>
@@ -2036,8 +2024,8 @@
       <c r="F20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>157</v>
+      <c r="G20" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>131</v>
@@ -2070,8 +2058,8 @@
       <c r="F21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>157</v>
+      <c r="G21" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>131</v>
@@ -2104,8 +2092,8 @@
       <c r="F22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>157</v>
+      <c r="G22" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>131</v>
@@ -2138,8 +2126,8 @@
       <c r="F23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>157</v>
+      <c r="G23" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>131</v>
@@ -2172,8 +2160,8 @@
       <c r="F24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>157</v>
+      <c r="G24" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>131</v>
@@ -2206,8 +2194,8 @@
       <c r="F25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>157</v>
+      <c r="G25" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>131</v>
@@ -2240,8 +2228,8 @@
       <c r="F26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="15" t="s">
-        <v>157</v>
+      <c r="G26" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>131</v>
@@ -2274,8 +2262,8 @@
       <c r="F27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="15" t="s">
-        <v>157</v>
+      <c r="G27" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>131</v>
@@ -2308,8 +2296,8 @@
       <c r="F28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>157</v>
+      <c r="G28" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>131</v>
@@ -2342,8 +2330,8 @@
       <c r="F29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="15" t="s">
-        <v>157</v>
+      <c r="G29" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>131</v>
@@ -2376,8 +2364,8 @@
       <c r="F30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="15" t="s">
-        <v>157</v>
+      <c r="G30" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>131</v>
@@ -2410,8 +2398,8 @@
       <c r="F31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="15" t="s">
-        <v>157</v>
+      <c r="G31" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>131</v>
@@ -2419,10 +2407,10 @@
       <c r="I31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="20">
         <v>44166</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="22">
         <v>44166</v>
       </c>
       <c r="L31" s="10"/>
@@ -2430,7 +2418,7 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>55</v>
@@ -2444,8 +2432,8 @@
       <c r="F32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="15" t="s">
-        <v>157</v>
+      <c r="G32" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>131</v>
@@ -2464,13 +2452,13 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -2478,8 +2466,8 @@
       <c r="F33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="15" t="s">
-        <v>157</v>
+      <c r="G33" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>131</v>
@@ -2490,7 +2478,7 @@
       <c r="J33" s="7">
         <v>44168</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="21">
         <v>44168</v>
       </c>
       <c r="L33" s="10"/>
@@ -2512,8 +2500,8 @@
       <c r="F34" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="15" t="s">
-        <v>157</v>
+      <c r="G34" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>131</v>
@@ -2546,11 +2534,11 @@
       <c r="F35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="15" t="s">
-        <v>157</v>
+      <c r="G35" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>16</v>
@@ -2562,7 +2550,7 @@
         <v>44173</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M35" s="4"/>
     </row>
@@ -2582,11 +2570,11 @@
       <c r="F36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="15" t="s">
-        <v>157</v>
+      <c r="G36" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>16</v>
@@ -2598,7 +2586,7 @@
         <v>44174</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M36" s="4"/>
     </row>
@@ -2610,15 +2598,15 @@
         <v>55</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="15" t="s">
-        <v>157</v>
+      <c r="G37" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>16</v>
@@ -2628,7 +2616,7 @@
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M37" s="4"/>
     </row>
@@ -2644,21 +2632,21 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="15" t="s">
-        <v>157</v>
+      <c r="G38" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38" s="20">
         <v>44178</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M38" s="4"/>
     </row>
@@ -2674,11 +2662,11 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="15" t="s">
-        <v>157</v>
+      <c r="G39" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>16</v>
@@ -2688,7 +2676,7 @@
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M39" s="4"/>
     </row>
@@ -2704,11 +2692,11 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="15" t="s">
-        <v>157</v>
+      <c r="G40" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>16</v>
@@ -2718,7 +2706,7 @@
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M40" s="4"/>
     </row>
@@ -2734,11 +2722,11 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="15" t="s">
-        <v>157</v>
+      <c r="G41" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>16</v>
@@ -2748,7 +2736,7 @@
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M41" s="4"/>
     </row>
@@ -2764,11 +2752,11 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="15" t="s">
-        <v>157</v>
+      <c r="G42" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>16</v>
@@ -2778,7 +2766,7 @@
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M42" s="4"/>
     </row>
@@ -2794,11 +2782,11 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="15" t="s">
-        <v>157</v>
+      <c r="G43" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>16</v>
@@ -2808,7 +2796,7 @@
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M43" s="4"/>
     </row>
@@ -2824,11 +2812,11 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="15" t="s">
-        <v>157</v>
+      <c r="G44" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>16</v>
@@ -2838,7 +2826,7 @@
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M44" s="4"/>
     </row>
@@ -2854,11 +2842,11 @@
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="15" t="s">
-        <v>157</v>
+      <c r="G45" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>16</v>
@@ -2868,27 +2856,27 @@
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="15" t="s">
-        <v>157</v>
+      <c r="G46" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>16</v>
@@ -2898,27 +2886,27 @@
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="15" t="s">
-        <v>157</v>
+      <c r="G47" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>16</v>
@@ -2928,7 +2916,7 @@
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M47" s="4"/>
     </row>
@@ -2944,11 +2932,11 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="15" t="s">
-        <v>157</v>
+      <c r="G48" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>16</v>
@@ -2958,7 +2946,7 @@
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M48" s="4"/>
     </row>
@@ -2974,11 +2962,11 @@
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="15" t="s">
-        <v>157</v>
+      <c r="G49" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>16</v>
@@ -2988,7 +2976,7 @@
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M49" s="4"/>
     </row>
@@ -3004,11 +2992,11 @@
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="15" t="s">
-        <v>157</v>
+      <c r="G50" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>16</v>
@@ -3018,7 +3006,7 @@
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M50" s="4"/>
     </row>
@@ -3034,11 +3022,11 @@
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="15" t="s">
-        <v>157</v>
+      <c r="G51" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>16</v>
@@ -3046,9 +3034,9 @@
       <c r="J51" s="7">
         <v>44195</v>
       </c>
-      <c r="K51" s="24"/>
+      <c r="K51" s="23"/>
       <c r="L51" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M51" s="4"/>
     </row>
@@ -4014,7 +4002,7 @@
         <v>총완료 0건</v>
       </c>
       <c r="M1" s="8"/>
-      <c r="N1" s="25"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -4051,7 +4039,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="25"/>
+      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -4439,13 +4427,13 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -4465,13 +4453,13 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -5561,406 +5549,1127 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="B1:E113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="str">
+        <f>"퍼블리싱업무 총물량 "&amp;COUNTA(B3:B10013)&amp;"건"</f>
+        <v>퍼블리싱업무 총물량 49건</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1">
-        <v>36</v>
-      </c>
-      <c r="D1" s="14">
-        <v>819400</v>
-      </c>
-      <c r="E1" s="14">
-        <v>907484</v>
-      </c>
-      <c r="F1" s="14">
-        <v>17690</v>
-      </c>
-      <c r="G1">
-        <v>14</v>
-      </c>
-      <c r="H1" s="14">
-        <v>472918</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2">
-        <v>36</v>
-      </c>
-      <c r="D2" s="14">
-        <v>819400</v>
-      </c>
-      <c r="E2" s="14">
-        <v>907484</v>
-      </c>
-      <c r="F2" s="14">
-        <v>17690</v>
-      </c>
-      <c r="G2">
-        <v>14</v>
-      </c>
-      <c r="H2" s="14">
-        <v>472918</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3">
-        <v>36</v>
-      </c>
-      <c r="D3" s="14">
-        <v>819400</v>
-      </c>
-      <c r="E3" s="14">
-        <v>907484</v>
-      </c>
-      <c r="F3" s="14">
-        <v>17690</v>
-      </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-      <c r="H3" s="14">
-        <v>472918</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4">
-        <v>36</v>
-      </c>
-      <c r="D4" s="14">
-        <v>819400</v>
-      </c>
-      <c r="E4" s="14">
-        <v>907484</v>
-      </c>
-      <c r="F4" s="14">
-        <v>17690</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-      <c r="H4" s="14">
-        <v>472918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5">
-        <v>36</v>
-      </c>
-      <c r="D5" s="14">
-        <v>819400</v>
-      </c>
-      <c r="E5" s="14">
-        <v>907484</v>
-      </c>
-      <c r="F5" s="14">
-        <v>17690</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
-      </c>
-      <c r="H5" s="14">
-        <v>472918</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6">
-        <v>36</v>
-      </c>
-      <c r="D6" s="14">
-        <v>819400</v>
-      </c>
-      <c r="E6" s="14">
-        <v>907484</v>
-      </c>
-      <c r="F6" s="14">
-        <v>17690</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
-      </c>
-      <c r="H6" s="14">
-        <v>472918</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7">
-        <v>36</v>
-      </c>
-      <c r="D7" s="14">
-        <v>819400</v>
-      </c>
-      <c r="E7" s="14">
-        <v>907484</v>
-      </c>
-      <c r="F7" s="14">
-        <v>17690</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8">
-        <v>36</v>
-      </c>
-      <c r="D8" s="14">
-        <v>819400</v>
-      </c>
-      <c r="E8" s="14">
-        <v>907484</v>
-      </c>
-      <c r="F8" s="14">
-        <v>17690</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9">
-        <v>36</v>
-      </c>
-      <c r="D9" s="14">
-        <v>819400</v>
-      </c>
-      <c r="E9" s="14">
-        <v>907484</v>
-      </c>
-      <c r="F9" s="14">
-        <v>17690</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10">
-        <v>36</v>
-      </c>
-      <c r="D10" s="14">
-        <v>819400</v>
-      </c>
-      <c r="E10" s="14">
-        <v>907484</v>
-      </c>
-      <c r="F10" s="14">
-        <v>17690</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11">
-        <v>36</v>
-      </c>
-      <c r="D11" s="14">
-        <v>819400</v>
-      </c>
-      <c r="E11" s="14">
-        <v>907484</v>
-      </c>
-      <c r="F11" s="14">
-        <v>17690</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12">
-        <v>36</v>
-      </c>
-      <c r="D12" s="14">
-        <v>819400</v>
-      </c>
-      <c r="E12" s="14">
-        <v>907484</v>
-      </c>
-      <c r="F12" s="14">
-        <v>17690</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13">
-        <v>36</v>
-      </c>
-      <c r="D13" s="14">
-        <v>819400</v>
-      </c>
-      <c r="E13" s="14">
-        <v>907484</v>
-      </c>
-      <c r="F13" s="14">
-        <v>17690</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14">
-        <v>36</v>
-      </c>
-      <c r="D14" s="14">
-        <v>819400</v>
-      </c>
-      <c r="E14" s="14">
-        <v>907484</v>
-      </c>
-      <c r="F14" s="14">
-        <v>17690</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15">
-        <v>36</v>
-      </c>
-      <c r="D15" s="14">
-        <v>819400</v>
-      </c>
-      <c r="E15" s="14">
-        <v>907484</v>
-      </c>
-      <c r="F15" s="14">
-        <v>17690</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
+      <c r="E33" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="6"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{06E61125-EC2F-401F-A293-BA1157D29C39}"/>
+    <hyperlink ref="E14" r:id="rId2" xr:uid="{3C67A6AC-2E81-4070-8059-3D9C41F24A5B}"/>
+    <hyperlink ref="E15" r:id="rId3" xr:uid="{AF5202CF-68B7-4ED9-A9CC-B8C59DB82B56}"/>
+    <hyperlink ref="E16" r:id="rId4" xr:uid="{22FF2FBE-1DF3-4B0C-9309-5AD1395D8C21}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{B0D511CC-C4EF-4F89-941C-2B73CBDEA05B}"/>
+    <hyperlink ref="E18" r:id="rId6" xr:uid="{2BCBC52E-FAB4-46E5-B86A-E72EBB5E25B2}"/>
+    <hyperlink ref="E19" r:id="rId7" xr:uid="{F25F0F74-327B-4EE8-AF40-F8F42A0890D7}"/>
+    <hyperlink ref="E20" r:id="rId8" xr:uid="{BCA704F1-C3DB-4638-9BC1-240CA0A83D70}"/>
+    <hyperlink ref="E21" r:id="rId9" xr:uid="{3F52DB17-2409-40EF-A46A-A2A65278C604}"/>
+    <hyperlink ref="E22" r:id="rId10" xr:uid="{F89F726F-D2AC-40E6-8ADF-74CC6E39CFB4}"/>
+    <hyperlink ref="E23" r:id="rId11" xr:uid="{4BABE284-E41C-4909-89CD-A896ABA47327}"/>
+    <hyperlink ref="E24" r:id="rId12" xr:uid="{C64193D4-68BA-40CC-9CBB-B521D2CA4395}"/>
+    <hyperlink ref="E25" r:id="rId13" xr:uid="{EAB4215D-45C4-40D3-BB6E-63F5DECEB863}"/>
+    <hyperlink ref="E26" r:id="rId14" xr:uid="{6EC9F410-A5B4-430F-8727-735A0483C6FA}"/>
+    <hyperlink ref="E27" r:id="rId15" xr:uid="{AD9E0219-593B-4AFA-B134-5533ABEE0B8C}"/>
+    <hyperlink ref="E28" r:id="rId16" xr:uid="{2A137194-A803-43AC-8136-0F54EFD1DFF7}"/>
+    <hyperlink ref="E29" r:id="rId17" xr:uid="{44FE7F16-2C36-4DA1-8104-F2EEC8CE3DC2}"/>
+    <hyperlink ref="E30" r:id="rId18" xr:uid="{FD41C73C-E070-4707-B87D-85EB6FDCB091}"/>
+    <hyperlink ref="E31" r:id="rId19" xr:uid="{0EDA8B65-F118-4872-8432-513D0700F937}"/>
+    <hyperlink ref="E32" r:id="rId20" xr:uid="{74EFD766-356B-40C2-B340-79E70B5D047D}"/>
+    <hyperlink ref="E33" r:id="rId21" xr:uid="{ED41889C-4918-41C0-A481-D09693B4D3C8}"/>
+    <hyperlink ref="E34" r:id="rId22" xr:uid="{FCC20800-0F07-4DAA-8E33-B84D48853F57}"/>
+    <hyperlink ref="E35" r:id="rId23" xr:uid="{19335392-2DA4-4026-AAD4-B83FA1C9A974}"/>
+    <hyperlink ref="E36" r:id="rId24" xr:uid="{9FE5D4A6-3C95-4E51-9A6A-483F8AB8D94D}"/>
+    <hyperlink ref="E37" r:id="rId25" xr:uid="{786B5A71-B94C-494C-8842-B413852B0933}"/>
+    <hyperlink ref="E38" r:id="rId26" xr:uid="{D2AFB03A-9CEF-4F36-9342-4982810AABBC}"/>
+    <hyperlink ref="E39" r:id="rId27" xr:uid="{8F01EEFD-62D4-445F-8139-B980270F336B}"/>
+    <hyperlink ref="E40" r:id="rId28" xr:uid="{9E38FE0F-F138-4204-AA7F-1B3FA2C3E029}"/>
+    <hyperlink ref="E41" r:id="rId29" xr:uid="{518C320E-D0B1-4A3D-8E8E-50656D5596F1}"/>
+    <hyperlink ref="E42" r:id="rId30" xr:uid="{A0735234-19E3-480F-9AA6-7EF2F596A416}"/>
+    <hyperlink ref="E43" r:id="rId31" xr:uid="{B0D75A20-6610-435A-8E1E-81C4259D2B24}"/>
+    <hyperlink ref="E44" r:id="rId32" xr:uid="{DE6FDFEF-4F12-48C9-A17C-A00F80F46768}"/>
+    <hyperlink ref="E45" r:id="rId33" xr:uid="{296CCC39-65E9-4E31-BE6B-5EA0FF87DDD5}"/>
+    <hyperlink ref="E46" r:id="rId34" xr:uid="{8341AB13-D9F0-41C3-9254-8BB16C154189}"/>
+    <hyperlink ref="E47" r:id="rId35" xr:uid="{4E7EF667-B6F3-4E75-A4A6-AF66FCE40DA7}"/>
+    <hyperlink ref="E48" r:id="rId36" xr:uid="{3F477B7F-30C9-45CF-A9AC-4C53B28F77F6}"/>
+    <hyperlink ref="E49" r:id="rId37" xr:uid="{406C6619-24F4-46E2-9032-359E9B73A4BF}"/>
+    <hyperlink ref="E50" r:id="rId38" xr:uid="{F98F0FA9-6EA7-4007-AA45-C455A7363A08}"/>
+    <hyperlink ref="E51" r:id="rId39" xr:uid="{53CA9A43-DAC0-4754-8154-3F3D0FC18982}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>